--- a/BackTest/2019-10-30 BackTest RDN.xlsx
+++ b/BackTest/2019-10-30 BackTest RDN.xlsx
@@ -448,7 +448,7 @@
         <v>776</v>
       </c>
       <c r="G2" t="n">
-        <v>187.65</v>
+        <v>186.6333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>306.6631</v>
       </c>
       <c r="G3" t="n">
-        <v>187.8</v>
+        <v>186.65</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>353.647</v>
       </c>
       <c r="G4" t="n">
-        <v>187.95</v>
+        <v>186.6166666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -553,16 +553,20 @@
         <v>200</v>
       </c>
       <c r="G5" t="n">
-        <v>188.05</v>
+        <v>186.6166666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>186</v>
+      </c>
+      <c r="K5" t="n">
+        <v>186</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -588,17 +592,25 @@
         <v>1024400</v>
       </c>
       <c r="G6" t="n">
-        <v>188.1</v>
+        <v>186.6333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>186</v>
+      </c>
+      <c r="K6" t="n">
+        <v>186</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -623,17 +635,25 @@
         <v>2160000</v>
       </c>
       <c r="G7" t="n">
-        <v>188.05</v>
+        <v>186.65</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>187</v>
+      </c>
+      <c r="K7" t="n">
+        <v>186</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -658,7 +678,7 @@
         <v>765043.9424000001</v>
       </c>
       <c r="G8" t="n">
-        <v>187.75</v>
+        <v>186.6333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -693,7 +713,7 @@
         <v>4558.9498</v>
       </c>
       <c r="G9" t="n">
-        <v>187.6</v>
+        <v>186.65</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -728,7 +748,7 @@
         <v>9.919700000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>187.35</v>
+        <v>186.6666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -763,7 +783,7 @@
         <v>1813.8513</v>
       </c>
       <c r="G11" t="n">
-        <v>187.3</v>
+        <v>186.6833333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,7 +818,7 @@
         <v>2992.5</v>
       </c>
       <c r="G12" t="n">
-        <v>187.15</v>
+        <v>186.6666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -833,7 +853,7 @@
         <v>9596.3797</v>
       </c>
       <c r="G13" t="n">
-        <v>187.05</v>
+        <v>186.65</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -868,7 +888,7 @@
         <v>28198.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>187.05</v>
+        <v>186.65</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -903,7 +923,7 @@
         <v>1804493.22</v>
       </c>
       <c r="G15" t="n">
-        <v>187.1</v>
+        <v>186.6666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -938,13 +958,13 @@
         <v>365087.013</v>
       </c>
       <c r="G16" t="n">
-        <v>186.95</v>
+        <v>186.65</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -973,7 +993,7 @@
         <v>990510.9570000001</v>
       </c>
       <c r="G17" t="n">
-        <v>187.05</v>
+        <v>186.65</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1008,7 +1028,7 @@
         <v>2531200</v>
       </c>
       <c r="G18" t="n">
-        <v>186.95</v>
+        <v>186.65</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1043,7 +1063,7 @@
         <v>2580400</v>
       </c>
       <c r="G19" t="n">
-        <v>187</v>
+        <v>186.6833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1078,13 +1098,13 @@
         <v>1760000</v>
       </c>
       <c r="G20" t="n">
-        <v>187.05</v>
+        <v>186.7166666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1113,7 +1133,7 @@
         <v>800</v>
       </c>
       <c r="G21" t="n">
-        <v>187.05</v>
+        <v>186.7166666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1148,7 +1168,7 @@
         <v>0.0001</v>
       </c>
       <c r="G22" t="n">
-        <v>187.05</v>
+        <v>186.7333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1183,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>187.15</v>
+        <v>186.7666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,7 +1238,7 @@
         <v>819.629</v>
       </c>
       <c r="G24" t="n">
-        <v>187.2</v>
+        <v>186.7666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1253,7 +1273,7 @@
         <v>5775</v>
       </c>
       <c r="G25" t="n">
-        <v>187.2</v>
+        <v>186.7333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1288,7 +1308,7 @@
         <v>1456.216</v>
       </c>
       <c r="G26" t="n">
-        <v>187.1</v>
+        <v>186.7833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1323,7 +1343,7 @@
         <v>1056.216</v>
       </c>
       <c r="G27" t="n">
-        <v>187</v>
+        <v>186.8666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1358,7 +1378,7 @@
         <v>5399.216</v>
       </c>
       <c r="G28" t="n">
-        <v>187.05</v>
+        <v>186.8666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1393,7 +1413,7 @@
         <v>1010.1861</v>
       </c>
       <c r="G29" t="n">
-        <v>187.15</v>
+        <v>186.95</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1428,7 +1448,7 @@
         <v>38.5843</v>
       </c>
       <c r="G30" t="n">
-        <v>187.25</v>
+        <v>187.0166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1463,7 +1483,7 @@
         <v>525.0774</v>
       </c>
       <c r="G31" t="n">
-        <v>187.4</v>
+        <v>187.0833333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1498,13 +1518,13 @@
         <v>38.5843</v>
       </c>
       <c r="G32" t="n">
-        <v>187.55</v>
+        <v>187.1333333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1533,7 +1553,7 @@
         <v>838.095</v>
       </c>
       <c r="G33" t="n">
-        <v>187.65</v>
+        <v>187.1666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1568,7 +1588,7 @@
         <v>425.4827</v>
       </c>
       <c r="G34" t="n">
-        <v>187.8</v>
+        <v>187.2333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1603,7 +1623,7 @@
         <v>1190</v>
       </c>
       <c r="G35" t="n">
-        <v>187.9</v>
+        <v>187.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1638,7 +1658,7 @@
         <v>393</v>
       </c>
       <c r="G36" t="n">
-        <v>188</v>
+        <v>187.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1673,7 +1693,7 @@
         <v>179.7607</v>
       </c>
       <c r="G37" t="n">
-        <v>188.1</v>
+        <v>187.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1708,7 +1728,7 @@
         <v>518.8726</v>
       </c>
       <c r="G38" t="n">
-        <v>188.2</v>
+        <v>187.5833333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1743,7 +1763,7 @@
         <v>9392.999</v>
       </c>
       <c r="G39" t="n">
-        <v>188.2</v>
+        <v>187.6666666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1778,7 +1798,7 @@
         <v>556740</v>
       </c>
       <c r="G40" t="n">
-        <v>188.2</v>
+        <v>187.75</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1813,7 +1833,7 @@
         <v>1268650.29</v>
       </c>
       <c r="G41" t="n">
-        <v>188.3</v>
+        <v>187.8166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1848,7 +1868,7 @@
         <v>996590</v>
       </c>
       <c r="G42" t="n">
-        <v>188.45</v>
+        <v>187.9166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1883,7 +1903,7 @@
         <v>1340000</v>
       </c>
       <c r="G43" t="n">
-        <v>188.45</v>
+        <v>188</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1918,7 +1938,7 @@
         <v>1340000</v>
       </c>
       <c r="G44" t="n">
-        <v>188.55</v>
+        <v>188.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1953,7 +1973,7 @@
         <v>1355136.9699</v>
       </c>
       <c r="G45" t="n">
-        <v>188.7</v>
+        <v>188.1833333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1988,7 +2008,7 @@
         <v>608039</v>
       </c>
       <c r="G46" t="n">
-        <v>188.9</v>
+        <v>188.2166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2023,7 +2043,7 @@
         <v>491461</v>
       </c>
       <c r="G47" t="n">
-        <v>189.1</v>
+        <v>188.15</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2058,7 +2078,7 @@
         <v>2090.9275</v>
       </c>
       <c r="G48" t="n">
-        <v>189.15</v>
+        <v>188.05</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2093,7 +2113,7 @@
         <v>9733.852699999999</v>
       </c>
       <c r="G49" t="n">
-        <v>189.2</v>
+        <v>188.0333333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2128,7 +2148,7 @@
         <v>2080.1746</v>
       </c>
       <c r="G50" t="n">
-        <v>189.2</v>
+        <v>187.9666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2163,7 +2183,7 @@
         <v>721.3249</v>
       </c>
       <c r="G51" t="n">
-        <v>189.15</v>
+        <v>187.9833333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2198,7 +2218,7 @@
         <v>15667.5872</v>
       </c>
       <c r="G52" t="n">
-        <v>189.1</v>
+        <v>187.95</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2233,7 +2253,7 @@
         <v>11.68783068783069</v>
       </c>
       <c r="G53" t="n">
-        <v>189</v>
+        <v>187.9166666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2268,7 +2288,7 @@
         <v>5000</v>
       </c>
       <c r="G54" t="n">
-        <v>188.85</v>
+        <v>187.9166666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2303,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>188.75</v>
+        <v>187.9333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2338,7 +2358,7 @@
         <v>5000</v>
       </c>
       <c r="G56" t="n">
-        <v>188.6</v>
+        <v>187.85</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2373,7 +2393,7 @@
         <v>2389</v>
       </c>
       <c r="G57" t="n">
-        <v>188.5</v>
+        <v>187.8666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2408,7 +2428,7 @@
         <v>878.5445999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>188.35</v>
+        <v>187.8166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2443,7 +2463,7 @@
         <v>874.8972</v>
       </c>
       <c r="G59" t="n">
-        <v>188.3</v>
+        <v>187.8166666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2478,7 +2498,7 @@
         <v>1956.0377</v>
       </c>
       <c r="G60" t="n">
-        <v>188.2</v>
+        <v>187.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2513,7 +2533,7 @@
         <v>6648.1574</v>
       </c>
       <c r="G61" t="n">
-        <v>188.15</v>
+        <v>187.7666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2548,23 +2568,17 @@
         <v>8377.289500000001</v>
       </c>
       <c r="G62" t="n">
-        <v>188</v>
+        <v>187.7666666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>185</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2592,20 +2606,14 @@
         <v>187.85</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>186</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2630,7 +2638,7 @@
         <v>8766.021199999999</v>
       </c>
       <c r="G64" t="n">
-        <v>187.8</v>
+        <v>187.8833333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2640,11 +2648,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2669,7 +2673,7 @@
         <v>2066.9721</v>
       </c>
       <c r="G65" t="n">
-        <v>187.65</v>
+        <v>187.8666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2679,11 +2683,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>2054.8815</v>
       </c>
       <c r="G66" t="n">
-        <v>187.55</v>
+        <v>187.8333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2718,11 +2718,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2747,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>187.5</v>
+        <v>187.85</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2757,11 +2753,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2786,7 +2778,7 @@
         <v>60.4026</v>
       </c>
       <c r="G68" t="n">
-        <v>187.35</v>
+        <v>187.8333333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2796,11 +2788,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2825,7 +2813,7 @@
         <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>187.2</v>
+        <v>187.85</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2835,11 +2823,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +2848,7 @@
         <v>7168.4764</v>
       </c>
       <c r="G70" t="n">
-        <v>187.05</v>
+        <v>187.8333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2874,11 +2858,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2903,23 +2883,17 @@
         <v>75.99979999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>186.9</v>
+        <v>187.8166666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>186</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2944,23 +2918,17 @@
         <v>473.0714</v>
       </c>
       <c r="G72" t="n">
-        <v>186.85</v>
+        <v>187.8333333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>186</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2985,23 +2953,17 @@
         <v>38.1995</v>
       </c>
       <c r="G73" t="n">
-        <v>186.9</v>
+        <v>187.85</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>187</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3026,7 +2988,7 @@
         <v>29</v>
       </c>
       <c r="G74" t="n">
-        <v>186.95</v>
+        <v>187.8666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3036,11 +2998,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3065,7 +3023,7 @@
         <v>2741.0729</v>
       </c>
       <c r="G75" t="n">
-        <v>186.9</v>
+        <v>187.85</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3075,11 +3033,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3104,7 +3058,7 @@
         <v>38.1995</v>
       </c>
       <c r="G76" t="n">
-        <v>186.8</v>
+        <v>187.8166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3114,11 +3068,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3143,7 +3093,7 @@
         <v>1550.2291</v>
       </c>
       <c r="G77" t="n">
-        <v>186.65</v>
+        <v>187.7666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3153,11 +3103,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3182,7 +3128,7 @@
         <v>29</v>
       </c>
       <c r="G78" t="n">
-        <v>186.6</v>
+        <v>187.7333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3192,11 +3138,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3221,23 +3163,17 @@
         <v>199</v>
       </c>
       <c r="G79" t="n">
-        <v>186.45</v>
+        <v>187.6666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>186</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3262,23 +3198,17 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>186.5</v>
+        <v>187.65</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>184</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3303,7 +3233,7 @@
         <v>4000</v>
       </c>
       <c r="G81" t="n">
-        <v>186.4</v>
+        <v>187.6166666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3313,11 +3243,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3342,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>186.4</v>
+        <v>187.6166666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3352,11 +3278,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3381,7 +3303,7 @@
         <v>1011</v>
       </c>
       <c r="G83" t="n">
-        <v>186.35</v>
+        <v>187.55</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3391,11 +3313,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3420,7 +3338,7 @@
         <v>152</v>
       </c>
       <c r="G84" t="n">
-        <v>186.2</v>
+        <v>187.5166666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3430,11 +3348,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3459,7 +3373,7 @@
         <v>1433.7718</v>
       </c>
       <c r="G85" t="n">
-        <v>186.2</v>
+        <v>187.5333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3469,11 +3383,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3498,7 +3408,7 @@
         <v>2798.1215</v>
       </c>
       <c r="G86" t="n">
-        <v>186.1</v>
+        <v>187.5166666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3508,11 +3418,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3537,7 +3443,7 @@
         <v>3169.6708</v>
       </c>
       <c r="G87" t="n">
-        <v>186</v>
+        <v>187.5166666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3547,11 +3453,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3576,7 +3478,7 @@
         <v>3611.4565</v>
       </c>
       <c r="G88" t="n">
-        <v>186</v>
+        <v>187.5166666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3586,11 +3488,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3615,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>186</v>
+        <v>187.4833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3625,11 +3523,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3654,7 +3548,7 @@
         <v>205.3129</v>
       </c>
       <c r="G90" t="n">
-        <v>186.05</v>
+        <v>187.45</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3664,11 +3558,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3693,7 +3583,7 @@
         <v>5500</v>
       </c>
       <c r="G91" t="n">
-        <v>186.1</v>
+        <v>187.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3703,11 +3593,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3732,7 +3618,7 @@
         <v>0.3648</v>
       </c>
       <c r="G92" t="n">
-        <v>186.1</v>
+        <v>187.3666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3742,11 +3628,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3771,7 +3653,7 @@
         <v>3574.5658</v>
       </c>
       <c r="G93" t="n">
-        <v>186.05</v>
+        <v>187.35</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3781,11 +3663,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3810,7 +3688,7 @@
         <v>172.1412</v>
       </c>
       <c r="G94" t="n">
-        <v>185.9</v>
+        <v>187.2666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3820,11 +3698,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3849,7 +3723,7 @@
         <v>12.16042780748663</v>
       </c>
       <c r="G95" t="n">
-        <v>185.8</v>
+        <v>187.2166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3859,11 +3733,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3888,7 +3758,7 @@
         <v>171</v>
       </c>
       <c r="G96" t="n">
-        <v>185.85</v>
+        <v>187.15</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3898,11 +3768,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3927,7 +3793,7 @@
         <v>9226.758900000001</v>
       </c>
       <c r="G97" t="n">
-        <v>185.85</v>
+        <v>187.0666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3937,11 +3803,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3966,7 +3828,7 @@
         <v>2250.1084</v>
       </c>
       <c r="G98" t="n">
-        <v>185.9</v>
+        <v>187</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3976,11 +3838,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4005,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>186</v>
+        <v>186.9666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4015,11 +3873,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4044,7 +3898,7 @@
         <v>7908.7899</v>
       </c>
       <c r="G100" t="n">
-        <v>185.95</v>
+        <v>186.9333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4054,11 +3908,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4083,7 +3933,7 @@
         <v>210.1265</v>
       </c>
       <c r="G101" t="n">
-        <v>186</v>
+        <v>186.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4093,11 +3943,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4122,7 +3968,7 @@
         <v>498.3689</v>
       </c>
       <c r="G102" t="n">
-        <v>186.05</v>
+        <v>186.85</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4132,11 +3978,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-30 BackTest RDN.xlsx
+++ b/BackTest/2019-10-30 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>776</v>
       </c>
       <c r="G2" t="n">
+        <v>188.9333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>186.6333333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>306.6631</v>
       </c>
       <c r="G3" t="n">
+        <v>188.5333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>186.65</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>353.647</v>
       </c>
       <c r="G4" t="n">
+        <v>188.1333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>186.6166666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,22 +567,21 @@
         <v>200</v>
       </c>
       <c r="G5" t="n">
+        <v>187.6666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>186.6166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>186</v>
-      </c>
-      <c r="K5" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -592,26 +605,21 @@
         <v>1024400</v>
       </c>
       <c r="G6" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="H6" t="n">
         <v>186.6333333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>186</v>
-      </c>
-      <c r="K6" t="n">
-        <v>186</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -635,26 +643,21 @@
         <v>2160000</v>
       </c>
       <c r="G7" t="n">
+        <v>187.4666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>186.65</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>187</v>
-      </c>
-      <c r="K7" t="n">
-        <v>186</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,18 +681,21 @@
         <v>765043.9424000001</v>
       </c>
       <c r="G8" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="H8" t="n">
         <v>186.6333333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -713,18 +719,21 @@
         <v>4558.9498</v>
       </c>
       <c r="G9" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="H9" t="n">
         <v>186.65</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -748,18 +757,21 @@
         <v>9.919700000000001</v>
       </c>
       <c r="G10" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="H10" t="n">
         <v>186.6666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +795,21 @@
         <v>1813.8513</v>
       </c>
       <c r="G11" t="n">
+        <v>186.9333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>186.6833333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,18 +833,21 @@
         <v>2992.5</v>
       </c>
       <c r="G12" t="n">
+        <v>186.9333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>186.6666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -853,18 +871,21 @@
         <v>9596.3797</v>
       </c>
       <c r="G13" t="n">
+        <v>186.7333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>186.65</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -888,18 +909,21 @@
         <v>28198.9999</v>
       </c>
       <c r="G14" t="n">
+        <v>186.7333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>186.65</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -923,18 +947,21 @@
         <v>1804493.22</v>
       </c>
       <c r="G15" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="H15" t="n">
         <v>186.6666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -958,18 +985,21 @@
         <v>365087.013</v>
       </c>
       <c r="G16" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="H16" t="n">
         <v>186.65</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -993,18 +1023,21 @@
         <v>990510.9570000001</v>
       </c>
       <c r="G17" t="n">
+        <v>186.9333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>186.65</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1028,18 +1061,21 @@
         <v>2531200</v>
       </c>
       <c r="G18" t="n">
+        <v>187</v>
+      </c>
+      <c r="H18" t="n">
         <v>186.65</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1063,18 +1099,21 @@
         <v>2580400</v>
       </c>
       <c r="G19" t="n">
+        <v>187.1333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>186.6833333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,18 +1137,21 @@
         <v>1760000</v>
       </c>
       <c r="G20" t="n">
+        <v>187.2666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>186.7166666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1133,18 +1175,21 @@
         <v>800</v>
       </c>
       <c r="G21" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="H21" t="n">
         <v>186.7166666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,18 +1213,21 @@
         <v>0.0001</v>
       </c>
       <c r="G22" t="n">
+        <v>187.1333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>186.7333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1203,18 +1251,21 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
+        <v>187.2666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>186.7666666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,18 +1289,21 @@
         <v>819.629</v>
       </c>
       <c r="G24" t="n">
+        <v>187.2666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>186.7666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1273,18 +1327,21 @@
         <v>5775</v>
       </c>
       <c r="G25" t="n">
+        <v>187.1333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>186.7333333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,18 +1365,21 @@
         <v>1456.216</v>
       </c>
       <c r="G26" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="H26" t="n">
         <v>186.7833333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1343,18 +1403,21 @@
         <v>1056.216</v>
       </c>
       <c r="G27" t="n">
+        <v>187.3333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>186.8666666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,18 +1441,21 @@
         <v>5399.216</v>
       </c>
       <c r="G28" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="H28" t="n">
         <v>186.8666666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1413,18 +1479,21 @@
         <v>1010.1861</v>
       </c>
       <c r="G29" t="n">
+        <v>187.3333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>186.95</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,18 +1517,21 @@
         <v>38.5843</v>
       </c>
       <c r="G30" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="H30" t="n">
         <v>187.0166666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1483,18 +1555,21 @@
         <v>525.0774</v>
       </c>
       <c r="G31" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="H31" t="n">
         <v>187.0833333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,18 +1593,21 @@
         <v>38.5843</v>
       </c>
       <c r="G32" t="n">
+        <v>187.6666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>187.1333333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1553,18 +1631,21 @@
         <v>838.095</v>
       </c>
       <c r="G33" t="n">
+        <v>187.7333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>187.1666666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1588,18 +1669,21 @@
         <v>425.4827</v>
       </c>
       <c r="G34" t="n">
+        <v>187.8666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>187.2333333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1623,18 +1707,21 @@
         <v>1190</v>
       </c>
       <c r="G35" t="n">
+        <v>188</v>
+      </c>
+      <c r="H35" t="n">
         <v>187.3</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,18 +1745,21 @@
         <v>393</v>
       </c>
       <c r="G36" t="n">
+        <v>188.2666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>187.4</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1693,18 +1783,21 @@
         <v>179.7607</v>
       </c>
       <c r="G37" t="n">
+        <v>188.5333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>187.5</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,18 +1821,21 @@
         <v>518.8726</v>
       </c>
       <c r="G38" t="n">
+        <v>188.5333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>187.5833333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1763,18 +1859,21 @@
         <v>9392.999</v>
       </c>
       <c r="G39" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="H39" t="n">
         <v>187.6666666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,18 +1897,21 @@
         <v>556740</v>
       </c>
       <c r="G40" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="H40" t="n">
         <v>187.75</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1833,18 +1935,21 @@
         <v>1268650.29</v>
       </c>
       <c r="G41" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="H41" t="n">
         <v>187.8166666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1868,18 +1973,21 @@
         <v>996590</v>
       </c>
       <c r="G42" t="n">
+        <v>188.8666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>187.9166666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1903,18 +2011,21 @@
         <v>1340000</v>
       </c>
       <c r="G43" t="n">
-        <v>188</v>
+        <v>189.1333333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,18 +2049,21 @@
         <v>1340000</v>
       </c>
       <c r="G44" t="n">
+        <v>189.1333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>188.1</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1973,18 +2087,21 @@
         <v>1355136.9699</v>
       </c>
       <c r="G45" t="n">
+        <v>189.1333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>188.1833333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,18 +2125,21 @@
         <v>608039</v>
       </c>
       <c r="G46" t="n">
+        <v>189.0666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>188.2166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2043,18 +2163,21 @@
         <v>491461</v>
       </c>
       <c r="G47" t="n">
+        <v>189.0666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>188.15</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,18 +2201,21 @@
         <v>2090.9275</v>
       </c>
       <c r="G48" t="n">
+        <v>188.9333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>188.05</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2113,18 +2239,21 @@
         <v>9733.852699999999</v>
       </c>
       <c r="G49" t="n">
+        <v>189</v>
+      </c>
+      <c r="H49" t="n">
         <v>188.0333333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,18 +2277,21 @@
         <v>2080.1746</v>
       </c>
       <c r="G50" t="n">
+        <v>188.9333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>187.9666666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2183,18 +2315,21 @@
         <v>721.3249</v>
       </c>
       <c r="G51" t="n">
+        <v>188.8666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>187.9833333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,18 +2353,21 @@
         <v>15667.5872</v>
       </c>
       <c r="G52" t="n">
+        <v>188.6666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>187.95</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2253,18 +2391,21 @@
         <v>11.68783068783069</v>
       </c>
       <c r="G53" t="n">
+        <v>188.6666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>187.9166666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,18 +2429,21 @@
         <v>5000</v>
       </c>
       <c r="G54" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="H54" t="n">
         <v>187.9166666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2323,18 +2467,21 @@
         <v>1</v>
       </c>
       <c r="G55" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="H55" t="n">
         <v>187.9333333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,18 +2505,21 @@
         <v>5000</v>
       </c>
       <c r="G56" t="n">
+        <v>188.4666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>187.85</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2393,18 +2543,21 @@
         <v>2389</v>
       </c>
       <c r="G57" t="n">
+        <v>188.3333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>187.8666666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,18 +2581,21 @@
         <v>878.5445999999999</v>
       </c>
       <c r="G58" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="H58" t="n">
         <v>187.8166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2463,18 +2619,21 @@
         <v>874.8972</v>
       </c>
       <c r="G59" t="n">
+        <v>188.0666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>187.8166666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,18 +2657,21 @@
         <v>1956.0377</v>
       </c>
       <c r="G60" t="n">
+        <v>187.8666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>187.8</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2533,18 +2695,21 @@
         <v>6648.1574</v>
       </c>
       <c r="G61" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="H61" t="n">
         <v>187.7666666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,18 +2733,21 @@
         <v>8377.289500000001</v>
       </c>
       <c r="G62" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="H62" t="n">
         <v>187.7666666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2603,18 +2771,21 @@
         <v>1222</v>
       </c>
       <c r="G63" t="n">
+        <v>187.7333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>187.85</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,18 +2809,21 @@
         <v>8766.021199999999</v>
       </c>
       <c r="G64" t="n">
+        <v>187.5333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>187.8833333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,18 +2847,21 @@
         <v>2066.9721</v>
       </c>
       <c r="G65" t="n">
+        <v>187.2666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>187.8666666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2708,18 +2885,21 @@
         <v>2054.8815</v>
       </c>
       <c r="G66" t="n">
+        <v>187</v>
+      </c>
+      <c r="H66" t="n">
         <v>187.8333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,18 +2923,21 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
+        <v>187.0666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>187.85</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,18 +2961,21 @@
         <v>60.4026</v>
       </c>
       <c r="G68" t="n">
+        <v>186.8666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>187.8333333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2813,18 +2999,21 @@
         <v>2</v>
       </c>
       <c r="G69" t="n">
+        <v>186.9333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>187.85</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,18 +3037,21 @@
         <v>7168.4764</v>
       </c>
       <c r="G70" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="H70" t="n">
         <v>187.8333333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2883,18 +3075,21 @@
         <v>75.99979999999999</v>
       </c>
       <c r="G71" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="H71" t="n">
         <v>187.8166666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,18 +3113,21 @@
         <v>473.0714</v>
       </c>
       <c r="G72" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="H72" t="n">
         <v>187.8333333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,18 +3151,21 @@
         <v>38.1995</v>
       </c>
       <c r="G73" t="n">
+        <v>186.8666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>187.85</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,18 +3189,21 @@
         <v>29</v>
       </c>
       <c r="G74" t="n">
+        <v>186.9333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>187.8666666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,18 +3227,21 @@
         <v>2741.0729</v>
       </c>
       <c r="G75" t="n">
+        <v>187</v>
+      </c>
+      <c r="H75" t="n">
         <v>187.85</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,18 +3265,21 @@
         <v>38.1995</v>
       </c>
       <c r="G76" t="n">
+        <v>187</v>
+      </c>
+      <c r="H76" t="n">
         <v>187.8166666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3093,18 +3303,21 @@
         <v>1550.2291</v>
       </c>
       <c r="G77" t="n">
+        <v>186.9333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>187.7666666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,18 +3341,21 @@
         <v>29</v>
       </c>
       <c r="G78" t="n">
+        <v>186.5333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>187.7333333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,18 +3379,21 @@
         <v>199</v>
       </c>
       <c r="G79" t="n">
+        <v>186.2666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>187.6666666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,18 +3417,21 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="H80" t="n">
         <v>187.65</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,18 +3455,21 @@
         <v>4000</v>
       </c>
       <c r="G81" t="n">
+        <v>186.3333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>187.6166666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,18 +3493,21 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="H82" t="n">
         <v>187.6166666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3303,18 +3531,21 @@
         <v>1011</v>
       </c>
       <c r="G83" t="n">
+        <v>186.1333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>187.55</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,18 +3569,21 @@
         <v>152</v>
       </c>
       <c r="G84" t="n">
+        <v>185.9333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>187.5166666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,18 +3607,21 @@
         <v>1433.7718</v>
       </c>
       <c r="G85" t="n">
+        <v>185.9333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>187.5333333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,18 +3645,21 @@
         <v>2798.1215</v>
       </c>
       <c r="G86" t="n">
+        <v>186</v>
+      </c>
+      <c r="H86" t="n">
         <v>187.5166666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,18 +3683,21 @@
         <v>3169.6708</v>
       </c>
       <c r="G87" t="n">
+        <v>186.0666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>187.5166666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,18 +3721,21 @@
         <v>3611.4565</v>
       </c>
       <c r="G88" t="n">
+        <v>185.8666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>187.5166666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,18 +3759,21 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="H89" t="n">
         <v>187.4833333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,18 +3797,21 @@
         <v>205.3129</v>
       </c>
       <c r="G90" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="H90" t="n">
         <v>187.45</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3583,18 +3835,21 @@
         <v>5500</v>
       </c>
       <c r="G91" t="n">
+        <v>185.9333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>187.4</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,18 +3873,21 @@
         <v>0.3648</v>
       </c>
       <c r="G92" t="n">
+        <v>186.0666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>187.3666666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3653,18 +3911,21 @@
         <v>3574.5658</v>
       </c>
       <c r="G93" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="H93" t="n">
         <v>187.35</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,18 +3949,21 @@
         <v>172.1412</v>
       </c>
       <c r="G94" t="n">
+        <v>186.2666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>187.2666666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,18 +3987,21 @@
         <v>12.16042780748663</v>
       </c>
       <c r="G95" t="n">
+        <v>186.2666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>187.2166666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,18 +4025,21 @@
         <v>171</v>
       </c>
       <c r="G96" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="H96" t="n">
         <v>187.15</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,18 +4063,21 @@
         <v>9226.758900000001</v>
       </c>
       <c r="G97" t="n">
+        <v>186.3333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>187.0666666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,18 +4101,27 @@
         <v>2250.1084</v>
       </c>
       <c r="G98" t="n">
-        <v>187</v>
+        <v>186.3333333333333</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>185</v>
+      </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,18 +4145,27 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="H99" t="n">
         <v>186.9666666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>185</v>
+      </c>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,18 +4189,25 @@
         <v>7908.7899</v>
       </c>
       <c r="G100" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="H100" t="n">
         <v>186.9333333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,18 +4231,27 @@
         <v>210.1265</v>
       </c>
       <c r="G101" t="n">
+        <v>186.3333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>186.9</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>186</v>
+      </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,18 +4275,465 @@
         <v>498.3689</v>
       </c>
       <c r="G102" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="H102" t="n">
         <v>186.85</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>186</v>
+      </c>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>186</v>
+      </c>
+      <c r="C103" t="n">
+        <v>186</v>
+      </c>
+      <c r="D103" t="n">
+        <v>186</v>
+      </c>
+      <c r="E103" t="n">
+        <v>186</v>
+      </c>
+      <c r="F103" t="n">
+        <v>809.0795000000001</v>
+      </c>
+      <c r="G103" t="n">
+        <v>186.2666666666667</v>
+      </c>
+      <c r="H103" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>186</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>186</v>
+      </c>
+      <c r="C104" t="n">
+        <v>186</v>
+      </c>
+      <c r="D104" t="n">
+        <v>186</v>
+      </c>
+      <c r="E104" t="n">
+        <v>186</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1716.0925</v>
+      </c>
+      <c r="G104" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="H104" t="n">
+        <v>186.75</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>186</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>186</v>
+      </c>
+      <c r="C105" t="n">
+        <v>186</v>
+      </c>
+      <c r="D105" t="n">
+        <v>186</v>
+      </c>
+      <c r="E105" t="n">
+        <v>186</v>
+      </c>
+      <c r="F105" t="n">
+        <v>223</v>
+      </c>
+      <c r="G105" t="n">
+        <v>186.1333333333333</v>
+      </c>
+      <c r="H105" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>186</v>
+      </c>
+      <c r="C106" t="n">
+        <v>186</v>
+      </c>
+      <c r="D106" t="n">
+        <v>186</v>
+      </c>
+      <c r="E106" t="n">
+        <v>186</v>
+      </c>
+      <c r="F106" t="n">
+        <v>650</v>
+      </c>
+      <c r="G106" t="n">
+        <v>186.0666666666667</v>
+      </c>
+      <c r="H106" t="n">
+        <v>186.65</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>186</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>187</v>
+      </c>
+      <c r="C107" t="n">
+        <v>187</v>
+      </c>
+      <c r="D107" t="n">
+        <v>187</v>
+      </c>
+      <c r="E107" t="n">
+        <v>187</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3509.576572192514</v>
+      </c>
+      <c r="G107" t="n">
+        <v>186.0666666666667</v>
+      </c>
+      <c r="H107" t="n">
+        <v>186.6166666666667</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>186</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>186</v>
+      </c>
+      <c r="C108" t="n">
+        <v>186</v>
+      </c>
+      <c r="D108" t="n">
+        <v>186</v>
+      </c>
+      <c r="E108" t="n">
+        <v>186</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3986.8422</v>
+      </c>
+      <c r="G108" t="n">
+        <v>185.9333333333333</v>
+      </c>
+      <c r="H108" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>187</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>185</v>
+      </c>
+      <c r="C109" t="n">
+        <v>185</v>
+      </c>
+      <c r="D109" t="n">
+        <v>185</v>
+      </c>
+      <c r="E109" t="n">
+        <v>185</v>
+      </c>
+      <c r="F109" t="n">
+        <v>11728.5798</v>
+      </c>
+      <c r="G109" t="n">
+        <v>185.9333333333333</v>
+      </c>
+      <c r="H109" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>186</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>185</v>
+      </c>
+      <c r="C110" t="n">
+        <v>187</v>
+      </c>
+      <c r="D110" t="n">
+        <v>187</v>
+      </c>
+      <c r="E110" t="n">
+        <v>185</v>
+      </c>
+      <c r="F110" t="n">
+        <v>6358.3368</v>
+      </c>
+      <c r="G110" t="n">
+        <v>185.9333333333333</v>
+      </c>
+      <c r="H110" t="n">
+        <v>186.4666666666667</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>185</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>185</v>
+      </c>
+      <c r="C111" t="n">
+        <v>185</v>
+      </c>
+      <c r="D111" t="n">
+        <v>185</v>
+      </c>
+      <c r="E111" t="n">
+        <v>185</v>
+      </c>
+      <c r="F111" t="n">
+        <v>8744.106100000001</v>
+      </c>
+      <c r="G111" t="n">
+        <v>185.8666666666667</v>
+      </c>
+      <c r="H111" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>187</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>186</v>
+      </c>
+      <c r="C112" t="n">
+        <v>184</v>
+      </c>
+      <c r="D112" t="n">
+        <v>188</v>
+      </c>
+      <c r="E112" t="n">
+        <v>184</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5915.9998</v>
+      </c>
+      <c r="G112" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="H112" t="n">
+        <v>186.35</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>185</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest RDN.xlsx
+++ b/BackTest/2019-10-30 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E2" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F2" t="n">
-        <v>776</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>188.9333333333333</v>
+        <v>-23672.2032</v>
       </c>
       <c r="H2" t="n">
-        <v>186.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E3" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" t="n">
-        <v>306.6631</v>
+        <v>1998.2352</v>
       </c>
       <c r="G3" t="n">
-        <v>188.5333333333333</v>
+        <v>-25670.4384</v>
       </c>
       <c r="H3" t="n">
-        <v>186.65</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -526,24 +515,21 @@
         <v>186</v>
       </c>
       <c r="F4" t="n">
-        <v>353.647</v>
+        <v>827.9946</v>
       </c>
       <c r="G4" t="n">
-        <v>188.1333333333333</v>
+        <v>-25670.4384</v>
       </c>
       <c r="H4" t="n">
-        <v>186.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C5" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E5" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" t="n">
-        <v>200</v>
+        <v>335</v>
       </c>
       <c r="G5" t="n">
-        <v>187.6666666666667</v>
+        <v>-26005.4384</v>
       </c>
       <c r="H5" t="n">
-        <v>186.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C6" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D6" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E6" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F6" t="n">
-        <v>1024400</v>
+        <v>200</v>
       </c>
       <c r="G6" t="n">
-        <v>187.6</v>
+        <v>-26005.4384</v>
       </c>
       <c r="H6" t="n">
-        <v>186.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C7" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D7" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E7" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F7" t="n">
-        <v>2160000</v>
+        <v>66.71129999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>187.4666666666667</v>
+        <v>-26005.4384</v>
       </c>
       <c r="H7" t="n">
-        <v>186.65</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D8" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E8" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F8" t="n">
-        <v>765043.9424000001</v>
+        <v>1232.805</v>
       </c>
       <c r="G8" t="n">
-        <v>187.2</v>
+        <v>-27238.2434</v>
       </c>
       <c r="H8" t="n">
-        <v>186.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C9" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D9" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E9" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F9" t="n">
-        <v>4558.9498</v>
+        <v>1026.086</v>
       </c>
       <c r="G9" t="n">
-        <v>187.2</v>
+        <v>-27238.2434</v>
       </c>
       <c r="H9" t="n">
-        <v>186.65</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C10" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D10" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E10" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F10" t="n">
-        <v>9.919700000000001</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>187.2</v>
+        <v>-27198.2434</v>
       </c>
       <c r="H10" t="n">
-        <v>186.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C11" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D11" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E11" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F11" t="n">
-        <v>1813.8513</v>
+        <v>6648.078</v>
       </c>
       <c r="G11" t="n">
-        <v>186.9333333333333</v>
+        <v>-33846.3214</v>
       </c>
       <c r="H11" t="n">
-        <v>186.6833333333333</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +789,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C12" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D12" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E12" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F12" t="n">
-        <v>2992.5</v>
+        <v>29.5356</v>
       </c>
       <c r="G12" t="n">
-        <v>186.9333333333333</v>
+        <v>-33816.7858</v>
       </c>
       <c r="H12" t="n">
-        <v>186.6666666666667</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +830,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C13" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D13" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E13" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F13" t="n">
-        <v>9596.3797</v>
+        <v>826.086</v>
       </c>
       <c r="G13" t="n">
-        <v>186.7333333333333</v>
+        <v>-34642.8718</v>
       </c>
       <c r="H13" t="n">
-        <v>186.65</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +871,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C14" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D14" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E14" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F14" t="n">
-        <v>28198.9999</v>
+        <v>820.7827</v>
       </c>
       <c r="G14" t="n">
-        <v>186.7333333333333</v>
+        <v>-33822.0891</v>
       </c>
       <c r="H14" t="n">
-        <v>186.65</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +910,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C15" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D15" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E15" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F15" t="n">
-        <v>1804493.22</v>
+        <v>1188.1002</v>
       </c>
       <c r="G15" t="n">
-        <v>186.8</v>
+        <v>-32633.9889</v>
       </c>
       <c r="H15" t="n">
-        <v>186.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,33 +952,34 @@
         <v>188</v>
       </c>
       <c r="C16" t="n">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D16" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E16" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F16" t="n">
-        <v>365087.013</v>
+        <v>34581.71643809524</v>
       </c>
       <c r="G16" t="n">
-        <v>186.8</v>
+        <v>1947.727538095241</v>
       </c>
       <c r="H16" t="n">
-        <v>186.65</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C17" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D17" t="n">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E17" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F17" t="n">
-        <v>990510.9570000001</v>
+        <v>16758</v>
       </c>
       <c r="G17" t="n">
-        <v>186.9333333333333</v>
+        <v>1947.727538095241</v>
       </c>
       <c r="H17" t="n">
-        <v>186.65</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1027,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C18" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D18" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E18" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F18" t="n">
-        <v>2531200</v>
+        <v>2216.6095</v>
       </c>
       <c r="G18" t="n">
-        <v>187</v>
+        <v>-268.8819619047586</v>
       </c>
       <c r="H18" t="n">
-        <v>186.65</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1066,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C19" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D19" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E19" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F19" t="n">
-        <v>2580400</v>
+        <v>9632.347299999999</v>
       </c>
       <c r="G19" t="n">
-        <v>187.1333333333333</v>
+        <v>9363.46533809524</v>
       </c>
       <c r="H19" t="n">
-        <v>186.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1134,24 +1117,25 @@
         <v>188</v>
       </c>
       <c r="F20" t="n">
-        <v>1760000</v>
+        <v>65.3018</v>
       </c>
       <c r="G20" t="n">
-        <v>187.2666666666667</v>
+        <v>9298.163538095241</v>
       </c>
       <c r="H20" t="n">
-        <v>186.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1144,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C21" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D21" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E21" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F21" t="n">
-        <v>800</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>187.2</v>
+        <v>9304.163538095241</v>
       </c>
       <c r="H21" t="n">
-        <v>186.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1183,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C22" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D22" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E22" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0001</v>
+        <v>179.6438659685864</v>
       </c>
       <c r="G22" t="n">
-        <v>187.1333333333333</v>
+        <v>9483.807404063828</v>
       </c>
       <c r="H22" t="n">
-        <v>186.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1222,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C23" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D23" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E23" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>682</v>
       </c>
       <c r="G23" t="n">
-        <v>187.2666666666667</v>
+        <v>8801.807404063828</v>
       </c>
       <c r="H23" t="n">
-        <v>186.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1286,24 +1273,25 @@
         <v>187</v>
       </c>
       <c r="F24" t="n">
-        <v>819.629</v>
+        <v>598.802</v>
       </c>
       <c r="G24" t="n">
-        <v>187.2666666666667</v>
+        <v>8801.807404063828</v>
       </c>
       <c r="H24" t="n">
-        <v>186.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1300,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C25" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D25" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E25" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F25" t="n">
-        <v>5775</v>
+        <v>10.5292</v>
       </c>
       <c r="G25" t="n">
-        <v>187.1333333333333</v>
+        <v>8812.336604063828</v>
       </c>
       <c r="H25" t="n">
-        <v>186.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1339,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C26" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D26" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E26" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F26" t="n">
-        <v>1456.216</v>
+        <v>10.5028</v>
       </c>
       <c r="G26" t="n">
-        <v>187.2</v>
+        <v>8801.833804063828</v>
       </c>
       <c r="H26" t="n">
-        <v>186.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1378,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C27" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D27" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E27" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F27" t="n">
-        <v>1056.216</v>
+        <v>1872.015789473684</v>
       </c>
       <c r="G27" t="n">
-        <v>187.3333333333333</v>
+        <v>10673.84959353751</v>
       </c>
       <c r="H27" t="n">
-        <v>186.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1417,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C28" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D28" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E28" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F28" t="n">
-        <v>5399.216</v>
+        <v>253.5031</v>
       </c>
       <c r="G28" t="n">
-        <v>187.2</v>
+        <v>10420.34649353751</v>
       </c>
       <c r="H28" t="n">
-        <v>186.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1456,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C29" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D29" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E29" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F29" t="n">
-        <v>1010.1861</v>
+        <v>450</v>
       </c>
       <c r="G29" t="n">
-        <v>187.3333333333333</v>
+        <v>10420.34649353751</v>
       </c>
       <c r="H29" t="n">
-        <v>186.95</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1495,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C30" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D30" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E30" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F30" t="n">
-        <v>38.5843</v>
+        <v>53.69511122994653</v>
       </c>
       <c r="G30" t="n">
-        <v>187.4</v>
+        <v>10420.34649353751</v>
       </c>
       <c r="H30" t="n">
-        <v>187.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1534,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C31" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D31" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E31" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F31" t="n">
-        <v>525.0774</v>
+        <v>776</v>
       </c>
       <c r="G31" t="n">
-        <v>187.6</v>
+        <v>9644.346493537512</v>
       </c>
       <c r="H31" t="n">
-        <v>187.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1573,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C32" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D32" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E32" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F32" t="n">
-        <v>38.5843</v>
+        <v>306.6631</v>
       </c>
       <c r="G32" t="n">
-        <v>187.6666666666667</v>
+        <v>9951.009593537512</v>
       </c>
       <c r="H32" t="n">
-        <v>187.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1612,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C33" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D33" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E33" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F33" t="n">
-        <v>838.095</v>
+        <v>353.647</v>
       </c>
       <c r="G33" t="n">
-        <v>187.7333333333333</v>
+        <v>9597.362593537511</v>
       </c>
       <c r="H33" t="n">
-        <v>187.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1651,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C34" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D34" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E34" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F34" t="n">
-        <v>425.4827</v>
+        <v>200</v>
       </c>
       <c r="G34" t="n">
-        <v>187.8666666666667</v>
+        <v>9597.362593537511</v>
       </c>
       <c r="H34" t="n">
-        <v>187.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1690,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C35" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D35" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E35" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F35" t="n">
-        <v>1190</v>
+        <v>1024400</v>
       </c>
       <c r="G35" t="n">
-        <v>188</v>
+        <v>1033997.362593538</v>
       </c>
       <c r="H35" t="n">
-        <v>187.3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1729,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C36" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D36" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E36" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F36" t="n">
-        <v>393</v>
+        <v>2160000</v>
       </c>
       <c r="G36" t="n">
-        <v>188.2666666666667</v>
+        <v>1033997.362593538</v>
       </c>
       <c r="H36" t="n">
-        <v>187.4</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1768,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C37" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D37" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E37" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F37" t="n">
-        <v>179.7607</v>
+        <v>765043.9424000001</v>
       </c>
       <c r="G37" t="n">
-        <v>188.5333333333333</v>
+        <v>1033997.362593538</v>
       </c>
       <c r="H37" t="n">
-        <v>187.5</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1807,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C38" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D38" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E38" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F38" t="n">
-        <v>518.8726</v>
+        <v>4558.9498</v>
       </c>
       <c r="G38" t="n">
-        <v>188.5333333333333</v>
+        <v>1033997.362593538</v>
       </c>
       <c r="H38" t="n">
-        <v>187.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1846,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C39" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D39" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E39" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F39" t="n">
-        <v>9392.999</v>
+        <v>9.919700000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>188.6</v>
+        <v>1033997.362593538</v>
       </c>
       <c r="H39" t="n">
-        <v>187.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1885,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C40" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D40" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E40" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F40" t="n">
-        <v>556740</v>
+        <v>1813.8513</v>
       </c>
       <c r="G40" t="n">
-        <v>188.8</v>
+        <v>1033997.362593538</v>
       </c>
       <c r="H40" t="n">
-        <v>187.75</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1924,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C41" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D41" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E41" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F41" t="n">
-        <v>1268650.29</v>
+        <v>2992.5</v>
       </c>
       <c r="G41" t="n">
-        <v>188.8</v>
+        <v>1031004.862593538</v>
       </c>
       <c r="H41" t="n">
-        <v>187.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1963,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C42" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D42" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E42" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F42" t="n">
-        <v>996590</v>
+        <v>9596.3797</v>
       </c>
       <c r="G42" t="n">
-        <v>188.8666666666667</v>
+        <v>1040601.242293538</v>
       </c>
       <c r="H42" t="n">
-        <v>187.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +2002,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C43" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D43" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E43" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F43" t="n">
-        <v>1340000</v>
+        <v>28198.9999</v>
       </c>
       <c r="G43" t="n">
-        <v>189.1333333333333</v>
+        <v>1040601.242293538</v>
       </c>
       <c r="H43" t="n">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +2041,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C44" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D44" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E44" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F44" t="n">
-        <v>1340000</v>
+        <v>1804493.22</v>
       </c>
       <c r="G44" t="n">
-        <v>189.1333333333333</v>
+        <v>2845094.462293537</v>
       </c>
       <c r="H44" t="n">
-        <v>188.1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2080,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C45" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D45" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E45" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F45" t="n">
-        <v>1355136.9699</v>
+        <v>365087.013</v>
       </c>
       <c r="G45" t="n">
-        <v>189.1333333333333</v>
+        <v>2480007.449293538</v>
       </c>
       <c r="H45" t="n">
-        <v>188.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2119,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C46" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D46" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E46" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F46" t="n">
-        <v>608039</v>
+        <v>990510.9570000001</v>
       </c>
       <c r="G46" t="n">
-        <v>189.0666666666667</v>
+        <v>3470518.406293537</v>
       </c>
       <c r="H46" t="n">
-        <v>188.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2158,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C47" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D47" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E47" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F47" t="n">
-        <v>491461</v>
+        <v>2531200</v>
       </c>
       <c r="G47" t="n">
-        <v>189.0666666666667</v>
+        <v>3470518.406293537</v>
       </c>
       <c r="H47" t="n">
-        <v>188.15</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2197,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C48" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D48" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E48" t="n">
         <v>187</v>
       </c>
       <c r="F48" t="n">
-        <v>2090.9275</v>
+        <v>2580400</v>
       </c>
       <c r="G48" t="n">
-        <v>188.9333333333333</v>
+        <v>3470518.406293537</v>
       </c>
       <c r="H48" t="n">
-        <v>188.05</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2236,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C49" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D49" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E49" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F49" t="n">
-        <v>9733.852699999999</v>
+        <v>1760000</v>
       </c>
       <c r="G49" t="n">
-        <v>189</v>
+        <v>3470518.406293537</v>
       </c>
       <c r="H49" t="n">
-        <v>188.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2275,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C50" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D50" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E50" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F50" t="n">
-        <v>2080.1746</v>
+        <v>800</v>
       </c>
       <c r="G50" t="n">
-        <v>188.9333333333333</v>
+        <v>3469718.406293537</v>
       </c>
       <c r="H50" t="n">
-        <v>187.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2314,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C51" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D51" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E51" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F51" t="n">
-        <v>721.3249</v>
+        <v>0.0001</v>
       </c>
       <c r="G51" t="n">
-        <v>188.8666666666667</v>
+        <v>3469718.406293537</v>
       </c>
       <c r="H51" t="n">
-        <v>187.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2353,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C52" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D52" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E52" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F52" t="n">
-        <v>15667.5872</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>188.6666666666667</v>
+        <v>3469728.406293537</v>
       </c>
       <c r="H52" t="n">
-        <v>187.95</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2379,33 +2395,34 @@
         <v>187</v>
       </c>
       <c r="C53" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D53" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E53" t="n">
         <v>187</v>
       </c>
       <c r="F53" t="n">
-        <v>11.68783068783069</v>
+        <v>819.629</v>
       </c>
       <c r="G53" t="n">
-        <v>188.6666666666667</v>
+        <v>3468908.777293537</v>
       </c>
       <c r="H53" t="n">
-        <v>187.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2431,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C54" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D54" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E54" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>5775</v>
       </c>
       <c r="G54" t="n">
-        <v>188.6</v>
+        <v>3463133.777293537</v>
       </c>
       <c r="H54" t="n">
-        <v>187.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2470,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C55" t="n">
         <v>188</v>
       </c>
       <c r="D55" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E55" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>1456.216</v>
       </c>
       <c r="G55" t="n">
-        <v>188.6</v>
+        <v>3464589.993293537</v>
       </c>
       <c r="H55" t="n">
-        <v>187.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2509,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C56" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D56" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E56" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F56" t="n">
-        <v>5000</v>
+        <v>1056.216</v>
       </c>
       <c r="G56" t="n">
-        <v>188.4666666666667</v>
+        <v>3464589.993293537</v>
       </c>
       <c r="H56" t="n">
-        <v>187.85</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,33 +2551,34 @@
         <v>188</v>
       </c>
       <c r="C57" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D57" t="n">
         <v>188</v>
       </c>
       <c r="E57" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F57" t="n">
-        <v>2389</v>
+        <v>5399.216</v>
       </c>
       <c r="G57" t="n">
-        <v>188.3333333333333</v>
+        <v>3459190.777293537</v>
       </c>
       <c r="H57" t="n">
-        <v>187.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2587,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C58" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D58" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E58" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F58" t="n">
-        <v>878.5445999999999</v>
+        <v>1010.1861</v>
       </c>
       <c r="G58" t="n">
-        <v>188.2</v>
+        <v>3460200.963393537</v>
       </c>
       <c r="H58" t="n">
-        <v>187.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2626,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C59" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D59" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E59" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F59" t="n">
-        <v>874.8972</v>
+        <v>38.5843</v>
       </c>
       <c r="G59" t="n">
-        <v>188.0666666666667</v>
+        <v>3460200.963393537</v>
       </c>
       <c r="H59" t="n">
-        <v>187.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2665,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C60" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D60" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E60" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F60" t="n">
-        <v>1956.0377</v>
+        <v>525.0774</v>
       </c>
       <c r="G60" t="n">
-        <v>187.8666666666667</v>
+        <v>3460726.040793537</v>
       </c>
       <c r="H60" t="n">
-        <v>187.8</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2704,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C61" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D61" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E61" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F61" t="n">
-        <v>6648.1574</v>
+        <v>38.5843</v>
       </c>
       <c r="G61" t="n">
-        <v>187.6</v>
+        <v>3460687.456493537</v>
       </c>
       <c r="H61" t="n">
-        <v>187.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2743,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C62" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D62" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E62" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F62" t="n">
-        <v>8377.289500000001</v>
+        <v>838.095</v>
       </c>
       <c r="G62" t="n">
-        <v>187.4</v>
+        <v>3460687.456493537</v>
       </c>
       <c r="H62" t="n">
-        <v>187.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2782,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C63" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E63" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F63" t="n">
-        <v>1222</v>
+        <v>425.4827</v>
       </c>
       <c r="G63" t="n">
-        <v>187.7333333333333</v>
+        <v>3461112.939193537</v>
       </c>
       <c r="H63" t="n">
-        <v>187.85</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2821,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C64" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D64" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E64" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F64" t="n">
-        <v>8766.021199999999</v>
+        <v>1190</v>
       </c>
       <c r="G64" t="n">
-        <v>187.5333333333333</v>
+        <v>3461112.939193537</v>
       </c>
       <c r="H64" t="n">
-        <v>187.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2860,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C65" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D65" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E65" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F65" t="n">
-        <v>2066.9721</v>
+        <v>393</v>
       </c>
       <c r="G65" t="n">
-        <v>187.2666666666667</v>
+        <v>3461112.939193537</v>
       </c>
       <c r="H65" t="n">
-        <v>187.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2899,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C66" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D66" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E66" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F66" t="n">
-        <v>2054.8815</v>
+        <v>179.7607</v>
       </c>
       <c r="G66" t="n">
-        <v>187</v>
+        <v>3461112.939193537</v>
       </c>
       <c r="H66" t="n">
-        <v>187.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2938,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C67" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D67" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E67" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>518.8726</v>
       </c>
       <c r="G67" t="n">
-        <v>187.0666666666667</v>
+        <v>3460594.066593537</v>
       </c>
       <c r="H67" t="n">
-        <v>187.85</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2977,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C68" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D68" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E68" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F68" t="n">
-        <v>60.4026</v>
+        <v>9392.999</v>
       </c>
       <c r="G68" t="n">
-        <v>186.8666666666667</v>
+        <v>3451201.067593537</v>
       </c>
       <c r="H68" t="n">
-        <v>187.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,7 +3016,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C69" t="n">
         <v>188</v>
@@ -2993,27 +3025,28 @@
         <v>188</v>
       </c>
       <c r="E69" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>556740</v>
       </c>
       <c r="G69" t="n">
-        <v>186.9333333333333</v>
+        <v>3451201.067593537</v>
       </c>
       <c r="H69" t="n">
-        <v>187.85</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +3055,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C70" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D70" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E70" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F70" t="n">
-        <v>7168.4764</v>
+        <v>1268650.29</v>
       </c>
       <c r="G70" t="n">
-        <v>186.8</v>
+        <v>3451201.067593537</v>
       </c>
       <c r="H70" t="n">
-        <v>187.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +3094,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C71" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D71" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E71" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F71" t="n">
-        <v>75.99979999999999</v>
+        <v>996590</v>
       </c>
       <c r="G71" t="n">
-        <v>186.8</v>
+        <v>4447791.067593537</v>
       </c>
       <c r="H71" t="n">
-        <v>187.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +3133,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C72" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D72" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E72" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F72" t="n">
-        <v>473.0714</v>
+        <v>1340000</v>
       </c>
       <c r="G72" t="n">
-        <v>186.8</v>
+        <v>4447791.067593537</v>
       </c>
       <c r="H72" t="n">
-        <v>187.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3172,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C73" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D73" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E73" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F73" t="n">
-        <v>38.1995</v>
+        <v>1340000</v>
       </c>
       <c r="G73" t="n">
-        <v>186.8666666666667</v>
+        <v>4447791.067593537</v>
       </c>
       <c r="H73" t="n">
-        <v>187.85</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3211,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C74" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D74" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E74" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F74" t="n">
-        <v>29</v>
+        <v>1355136.9699</v>
       </c>
       <c r="G74" t="n">
-        <v>186.9333333333333</v>
+        <v>4447791.067593537</v>
       </c>
       <c r="H74" t="n">
-        <v>187.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3250,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C75" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D75" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E75" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F75" t="n">
-        <v>2741.0729</v>
+        <v>608039</v>
       </c>
       <c r="G75" t="n">
-        <v>187</v>
+        <v>4447791.067593537</v>
       </c>
       <c r="H75" t="n">
-        <v>187.85</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3289,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C76" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D76" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E76" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F76" t="n">
-        <v>38.1995</v>
+        <v>491461</v>
       </c>
       <c r="G76" t="n">
-        <v>187</v>
+        <v>4447791.067593537</v>
       </c>
       <c r="H76" t="n">
-        <v>187.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3328,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C77" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D77" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E77" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F77" t="n">
-        <v>1550.2291</v>
+        <v>2090.9275</v>
       </c>
       <c r="G77" t="n">
-        <v>186.9333333333333</v>
+        <v>4445700.140093537</v>
       </c>
       <c r="H77" t="n">
-        <v>187.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3367,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C78" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D78" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E78" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F78" t="n">
-        <v>29</v>
+        <v>9733.852699999999</v>
       </c>
       <c r="G78" t="n">
-        <v>186.5333333333333</v>
+        <v>4455433.992793537</v>
       </c>
       <c r="H78" t="n">
-        <v>187.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,74 +3406,70 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C79" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D79" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E79" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F79" t="n">
-        <v>199</v>
+        <v>2080.1746</v>
       </c>
       <c r="G79" t="n">
-        <v>186.2666666666667</v>
+        <v>4453353.818193537</v>
       </c>
       <c r="H79" t="n">
-        <v>187.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C80" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D80" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E80" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>721.3249</v>
       </c>
       <c r="G80" t="n">
-        <v>186.4</v>
+        <v>4453353.818193537</v>
       </c>
       <c r="H80" t="n">
-        <v>187.65</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3478,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C81" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D81" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E81" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F81" t="n">
-        <v>4000</v>
+        <v>15667.5872</v>
       </c>
       <c r="G81" t="n">
-        <v>186.3333333333333</v>
+        <v>4437686.230993537</v>
       </c>
       <c r="H81" t="n">
-        <v>187.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3513,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C82" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D82" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E82" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>11.68783068783069</v>
       </c>
       <c r="G82" t="n">
-        <v>186.2</v>
+        <v>4437697.918824225</v>
       </c>
       <c r="H82" t="n">
-        <v>187.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3548,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C83" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D83" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E83" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F83" t="n">
-        <v>1011</v>
+        <v>5000</v>
       </c>
       <c r="G83" t="n">
-        <v>186.1333333333333</v>
+        <v>4432697.918824225</v>
       </c>
       <c r="H83" t="n">
-        <v>187.55</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3583,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C84" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D84" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E84" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F84" t="n">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>185.9333333333333</v>
+        <v>4432698.918824225</v>
       </c>
       <c r="H84" t="n">
-        <v>187.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3618,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C85" t="n">
         <v>186</v>
       </c>
       <c r="D85" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E85" t="n">
         <v>186</v>
       </c>
       <c r="F85" t="n">
-        <v>1433.7718</v>
+        <v>5000</v>
       </c>
       <c r="G85" t="n">
-        <v>185.9333333333333</v>
+        <v>4427698.918824225</v>
       </c>
       <c r="H85" t="n">
-        <v>187.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3653,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C86" t="n">
         <v>187</v>
       </c>
       <c r="D86" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E86" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F86" t="n">
-        <v>2798.1215</v>
+        <v>2389</v>
       </c>
       <c r="G86" t="n">
-        <v>186</v>
+        <v>4430087.918824225</v>
       </c>
       <c r="H86" t="n">
-        <v>187.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3688,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C87" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D87" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E87" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F87" t="n">
-        <v>3169.6708</v>
+        <v>878.5445999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>186.0666666666667</v>
+        <v>4430087.918824225</v>
       </c>
       <c r="H87" t="n">
-        <v>187.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3723,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C88" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D88" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E88" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F88" t="n">
-        <v>3611.4565</v>
+        <v>874.8972</v>
       </c>
       <c r="G88" t="n">
-        <v>185.8666666666667</v>
+        <v>4430087.918824225</v>
       </c>
       <c r="H88" t="n">
-        <v>187.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3758,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C89" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D89" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E89" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>1956.0377</v>
       </c>
       <c r="G89" t="n">
-        <v>185.8</v>
+        <v>4428131.881124225</v>
       </c>
       <c r="H89" t="n">
-        <v>187.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3785,33 +3796,30 @@
         <v>187</v>
       </c>
       <c r="C90" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D90" t="n">
         <v>187</v>
       </c>
       <c r="E90" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F90" t="n">
-        <v>205.3129</v>
+        <v>6648.1574</v>
       </c>
       <c r="G90" t="n">
-        <v>185.8</v>
+        <v>4421483.723724225</v>
       </c>
       <c r="H90" t="n">
-        <v>187.45</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3828,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C91" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D91" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E91" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F91" t="n">
-        <v>5500</v>
+        <v>8377.289500000001</v>
       </c>
       <c r="G91" t="n">
-        <v>185.9333333333333</v>
+        <v>4429861.013224225</v>
       </c>
       <c r="H91" t="n">
-        <v>187.4</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3863,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C92" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D92" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E92" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3648</v>
+        <v>1222</v>
       </c>
       <c r="G92" t="n">
-        <v>186.0666666666667</v>
+        <v>4431083.013224225</v>
       </c>
       <c r="H92" t="n">
-        <v>187.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,7 +3898,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C93" t="n">
         <v>188</v>
@@ -3905,27 +3907,24 @@
         <v>188</v>
       </c>
       <c r="E93" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F93" t="n">
-        <v>3574.5658</v>
+        <v>8766.021199999999</v>
       </c>
       <c r="G93" t="n">
-        <v>186.2</v>
+        <v>4422316.992024224</v>
       </c>
       <c r="H93" t="n">
-        <v>187.35</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3933,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C94" t="n">
         <v>185</v>
       </c>
       <c r="D94" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E94" t="n">
         <v>185</v>
       </c>
       <c r="F94" t="n">
-        <v>172.1412</v>
+        <v>2066.9721</v>
       </c>
       <c r="G94" t="n">
-        <v>186.2666666666667</v>
+        <v>4420250.019924224</v>
       </c>
       <c r="H94" t="n">
-        <v>187.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,10 +3968,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C95" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D95" t="n">
         <v>187</v>
@@ -3984,24 +3980,21 @@
         <v>185</v>
       </c>
       <c r="F95" t="n">
-        <v>12.16042780748663</v>
+        <v>2054.8815</v>
       </c>
       <c r="G95" t="n">
-        <v>186.2666666666667</v>
+        <v>4420250.019924224</v>
       </c>
       <c r="H95" t="n">
-        <v>187.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +4003,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C96" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D96" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E96" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F96" t="n">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>186.4</v>
+        <v>4420251.019924224</v>
       </c>
       <c r="H96" t="n">
-        <v>187.15</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +4038,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C97" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D97" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E97" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F97" t="n">
-        <v>9226.758900000001</v>
+        <v>60.4026</v>
       </c>
       <c r="G97" t="n">
-        <v>186.3333333333333</v>
+        <v>4420190.617324225</v>
       </c>
       <c r="H97" t="n">
-        <v>187.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,39 +4076,30 @@
         <v>187</v>
       </c>
       <c r="C98" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D98" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E98" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F98" t="n">
-        <v>2250.1084</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>186.3333333333333</v>
+        <v>4420192.617324225</v>
       </c>
       <c r="H98" t="n">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>185</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,30 +4120,21 @@
         <v>186</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>7168.4764</v>
       </c>
       <c r="G99" t="n">
-        <v>186.4</v>
+        <v>4413024.140924225</v>
       </c>
       <c r="H99" t="n">
-        <v>186.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>185</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4186,28 +4155,21 @@
         <v>186</v>
       </c>
       <c r="F100" t="n">
-        <v>7908.7899</v>
+        <v>75.99979999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>186.4</v>
+        <v>4413024.140924225</v>
       </c>
       <c r="H100" t="n">
-        <v>186.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4216,42 +4178,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C101" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D101" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E101" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F101" t="n">
-        <v>210.1265</v>
+        <v>473.0714</v>
       </c>
       <c r="G101" t="n">
-        <v>186.3333333333333</v>
+        <v>4413497.212324224</v>
       </c>
       <c r="H101" t="n">
-        <v>186.9</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4260,42 +4213,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C102" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D102" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E102" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F102" t="n">
-        <v>498.3689</v>
+        <v>38.1995</v>
       </c>
       <c r="G102" t="n">
-        <v>186.2</v>
+        <v>4413535.411824225</v>
       </c>
       <c r="H102" t="n">
-        <v>186.85</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4304,42 +4248,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C103" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D103" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E103" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F103" t="n">
-        <v>809.0795000000001</v>
+        <v>29</v>
       </c>
       <c r="G103" t="n">
-        <v>186.2666666666667</v>
+        <v>4413535.411824225</v>
       </c>
       <c r="H103" t="n">
-        <v>186.8</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>186</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4348,42 +4283,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C104" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D104" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E104" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F104" t="n">
-        <v>1716.0925</v>
+        <v>2741.0729</v>
       </c>
       <c r="G104" t="n">
-        <v>186.2</v>
+        <v>4410794.338924224</v>
       </c>
       <c r="H104" t="n">
-        <v>186.75</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,40 +4318,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C105" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D105" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E105" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F105" t="n">
-        <v>223</v>
+        <v>38.1995</v>
       </c>
       <c r="G105" t="n">
-        <v>186.1333333333333</v>
+        <v>4410756.139424224</v>
       </c>
       <c r="H105" t="n">
-        <v>186.7</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4434,42 +4353,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D106" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E106" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F106" t="n">
-        <v>650</v>
+        <v>1550.2291</v>
       </c>
       <c r="G106" t="n">
-        <v>186.0666666666667</v>
+        <v>4410756.139424224</v>
       </c>
       <c r="H106" t="n">
-        <v>186.65</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4478,42 +4388,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C107" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D107" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E107" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F107" t="n">
-        <v>3509.576572192514</v>
+        <v>29</v>
       </c>
       <c r="G107" t="n">
-        <v>186.0666666666667</v>
+        <v>4410785.139424224</v>
       </c>
       <c r="H107" t="n">
-        <v>186.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4522,42 +4423,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C108" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D108" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E108" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F108" t="n">
-        <v>3986.8422</v>
+        <v>199</v>
       </c>
       <c r="G108" t="n">
-        <v>185.9333333333333</v>
+        <v>4410586.139424224</v>
       </c>
       <c r="H108" t="n">
-        <v>186.6</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4566,42 +4458,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C109" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D109" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E109" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F109" t="n">
-        <v>11728.5798</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>185.9333333333333</v>
+        <v>4410587.139424224</v>
       </c>
       <c r="H109" t="n">
-        <v>186.5</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,39 +4496,30 @@
         <v>185</v>
       </c>
       <c r="C110" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D110" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E110" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F110" t="n">
-        <v>6358.3368</v>
+        <v>4000</v>
       </c>
       <c r="G110" t="n">
-        <v>185.9333333333333</v>
+        <v>4406587.139424224</v>
       </c>
       <c r="H110" t="n">
-        <v>186.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4654,42 +4528,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C111" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D111" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E111" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F111" t="n">
-        <v>8744.106100000001</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>185.8666666666667</v>
+        <v>4406588.139424224</v>
       </c>
       <c r="H111" t="n">
-        <v>186.4</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4698,42 +4563,1048 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C112" t="n">
+        <v>185</v>
+      </c>
+      <c r="D112" t="n">
+        <v>185</v>
+      </c>
+      <c r="E112" t="n">
+        <v>185</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4405577.139424224</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>185</v>
+      </c>
+      <c r="C113" t="n">
+        <v>185</v>
+      </c>
+      <c r="D113" t="n">
+        <v>185</v>
+      </c>
+      <c r="E113" t="n">
+        <v>185</v>
+      </c>
+      <c r="F113" t="n">
+        <v>152</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4405577.139424224</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>186</v>
+      </c>
+      <c r="C114" t="n">
+        <v>186</v>
+      </c>
+      <c r="D114" t="n">
+        <v>186</v>
+      </c>
+      <c r="E114" t="n">
+        <v>186</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1433.7718</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4407010.911224225</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>185</v>
+      </c>
+      <c r="C115" t="n">
+        <v>187</v>
+      </c>
+      <c r="D115" t="n">
+        <v>187</v>
+      </c>
+      <c r="E115" t="n">
+        <v>185</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2798.1215</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4409809.032724225</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>186</v>
+      </c>
+      <c r="C116" t="n">
+        <v>188</v>
+      </c>
+      <c r="D116" t="n">
+        <v>188</v>
+      </c>
+      <c r="E116" t="n">
+        <v>186</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3169.6708</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4412978.703524225</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>186</v>
+      </c>
+      <c r="C117" t="n">
+        <v>185</v>
+      </c>
+      <c r="D117" t="n">
+        <v>186</v>
+      </c>
+      <c r="E117" t="n">
+        <v>185</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3611.4565</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4409367.247024225</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>187</v>
+      </c>
+      <c r="C118" t="n">
+        <v>187</v>
+      </c>
+      <c r="D118" t="n">
+        <v>187</v>
+      </c>
+      <c r="E118" t="n">
+        <v>187</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>4409368.247024225</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>187</v>
+      </c>
+      <c r="C119" t="n">
+        <v>187</v>
+      </c>
+      <c r="D119" t="n">
+        <v>187</v>
+      </c>
+      <c r="E119" t="n">
+        <v>187</v>
+      </c>
+      <c r="F119" t="n">
+        <v>205.3129</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4409368.247024225</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>187</v>
+      </c>
+      <c r="C120" t="n">
+        <v>187</v>
+      </c>
+      <c r="D120" t="n">
+        <v>187</v>
+      </c>
+      <c r="E120" t="n">
+        <v>187</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G120" t="n">
+        <v>4409368.247024225</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>187</v>
+      </c>
+      <c r="C121" t="n">
+        <v>187</v>
+      </c>
+      <c r="D121" t="n">
+        <v>187</v>
+      </c>
+      <c r="E121" t="n">
+        <v>187</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.3648</v>
+      </c>
+      <c r="G121" t="n">
+        <v>4409368.247024225</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>187</v>
+      </c>
+      <c r="C122" t="n">
+        <v>188</v>
+      </c>
+      <c r="D122" t="n">
+        <v>188</v>
+      </c>
+      <c r="E122" t="n">
+        <v>187</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3574.5658</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4412942.812824225</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>185</v>
+      </c>
+      <c r="C123" t="n">
+        <v>185</v>
+      </c>
+      <c r="D123" t="n">
+        <v>185</v>
+      </c>
+      <c r="E123" t="n">
+        <v>185</v>
+      </c>
+      <c r="F123" t="n">
+        <v>172.1412</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4412770.671624225</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>185</v>
+      </c>
+      <c r="C124" t="n">
+        <v>187</v>
+      </c>
+      <c r="D124" t="n">
+        <v>187</v>
+      </c>
+      <c r="E124" t="n">
+        <v>185</v>
+      </c>
+      <c r="F124" t="n">
+        <v>12.16042780748663</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4412782.832052032</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>186</v>
+      </c>
+      <c r="C125" t="n">
+        <v>186</v>
+      </c>
+      <c r="D125" t="n">
+        <v>186</v>
+      </c>
+      <c r="E125" t="n">
+        <v>186</v>
+      </c>
+      <c r="F125" t="n">
+        <v>171</v>
+      </c>
+      <c r="G125" t="n">
+        <v>4412611.832052032</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>185</v>
+      </c>
+      <c r="C126" t="n">
+        <v>185</v>
+      </c>
+      <c r="D126" t="n">
+        <v>185</v>
+      </c>
+      <c r="E126" t="n">
+        <v>185</v>
+      </c>
+      <c r="F126" t="n">
+        <v>9226.758900000001</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4403385.073152033</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>187</v>
+      </c>
+      <c r="C127" t="n">
+        <v>185</v>
+      </c>
+      <c r="D127" t="n">
+        <v>187</v>
+      </c>
+      <c r="E127" t="n">
+        <v>185</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2250.1084</v>
+      </c>
+      <c r="G127" t="n">
+        <v>4403385.073152033</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>186</v>
+      </c>
+      <c r="C128" t="n">
+        <v>186</v>
+      </c>
+      <c r="D128" t="n">
+        <v>186</v>
+      </c>
+      <c r="E128" t="n">
+        <v>186</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>4403386.073152033</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>186</v>
+      </c>
+      <c r="C129" t="n">
+        <v>186</v>
+      </c>
+      <c r="D129" t="n">
+        <v>186</v>
+      </c>
+      <c r="E129" t="n">
+        <v>186</v>
+      </c>
+      <c r="F129" t="n">
+        <v>7908.7899</v>
+      </c>
+      <c r="G129" t="n">
+        <v>4403386.073152033</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>186</v>
+      </c>
+      <c r="C130" t="n">
+        <v>186</v>
+      </c>
+      <c r="D130" t="n">
+        <v>186</v>
+      </c>
+      <c r="E130" t="n">
+        <v>186</v>
+      </c>
+      <c r="F130" t="n">
+        <v>210.1265</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4403386.073152033</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>187</v>
+      </c>
+      <c r="C131" t="n">
+        <v>186</v>
+      </c>
+      <c r="D131" t="n">
+        <v>187</v>
+      </c>
+      <c r="E131" t="n">
+        <v>186</v>
+      </c>
+      <c r="F131" t="n">
+        <v>498.3689</v>
+      </c>
+      <c r="G131" t="n">
+        <v>4403386.073152033</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>186</v>
+      </c>
+      <c r="C132" t="n">
+        <v>186</v>
+      </c>
+      <c r="D132" t="n">
+        <v>186</v>
+      </c>
+      <c r="E132" t="n">
+        <v>186</v>
+      </c>
+      <c r="F132" t="n">
+        <v>809.0795000000001</v>
+      </c>
+      <c r="G132" t="n">
+        <v>4403386.073152033</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>186</v>
+      </c>
+      <c r="C133" t="n">
+        <v>186</v>
+      </c>
+      <c r="D133" t="n">
+        <v>186</v>
+      </c>
+      <c r="E133" t="n">
+        <v>186</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1716.0925</v>
+      </c>
+      <c r="G133" t="n">
+        <v>4403386.073152033</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>186</v>
+      </c>
+      <c r="C134" t="n">
+        <v>186</v>
+      </c>
+      <c r="D134" t="n">
+        <v>186</v>
+      </c>
+      <c r="E134" t="n">
+        <v>186</v>
+      </c>
+      <c r="F134" t="n">
+        <v>223</v>
+      </c>
+      <c r="G134" t="n">
+        <v>4403386.073152033</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>186</v>
+      </c>
+      <c r="C135" t="n">
+        <v>186</v>
+      </c>
+      <c r="D135" t="n">
+        <v>186</v>
+      </c>
+      <c r="E135" t="n">
+        <v>186</v>
+      </c>
+      <c r="F135" t="n">
+        <v>650</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4403386.073152033</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>187</v>
+      </c>
+      <c r="C136" t="n">
+        <v>187</v>
+      </c>
+      <c r="D136" t="n">
+        <v>187</v>
+      </c>
+      <c r="E136" t="n">
+        <v>187</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3509.576572192514</v>
+      </c>
+      <c r="G136" t="n">
+        <v>4406895.649724226</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>186</v>
+      </c>
+      <c r="C137" t="n">
+        <v>186</v>
+      </c>
+      <c r="D137" t="n">
+        <v>186</v>
+      </c>
+      <c r="E137" t="n">
+        <v>186</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3986.8422</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4402908.807524226</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>185</v>
+      </c>
+      <c r="C138" t="n">
+        <v>185</v>
+      </c>
+      <c r="D138" t="n">
+        <v>185</v>
+      </c>
+      <c r="E138" t="n">
+        <v>185</v>
+      </c>
+      <c r="F138" t="n">
+        <v>11728.5798</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4391180.227724225</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>185</v>
+      </c>
+      <c r="C139" t="n">
+        <v>187</v>
+      </c>
+      <c r="D139" t="n">
+        <v>187</v>
+      </c>
+      <c r="E139" t="n">
+        <v>185</v>
+      </c>
+      <c r="F139" t="n">
+        <v>6358.3368</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4397538.564524225</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>185</v>
+      </c>
+      <c r="C140" t="n">
+        <v>185</v>
+      </c>
+      <c r="D140" t="n">
+        <v>185</v>
+      </c>
+      <c r="E140" t="n">
+        <v>185</v>
+      </c>
+      <c r="F140" t="n">
+        <v>8744.106100000001</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4388794.458424225</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>186</v>
+      </c>
+      <c r="C141" t="n">
         <v>184</v>
       </c>
-      <c r="D112" t="n">
-        <v>188</v>
-      </c>
-      <c r="E112" t="n">
+      <c r="D141" t="n">
+        <v>188</v>
+      </c>
+      <c r="E141" t="n">
         <v>184</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F141" t="n">
         <v>5915.9998</v>
       </c>
-      <c r="G112" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="H112" t="n">
-        <v>186.35</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>185</v>
-      </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="G141" t="n">
+        <v>4382878.458624224</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest RDN.xlsx
+++ b/BackTest/2019-10-30 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>-23672.2032</v>
+        <v>186.05</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>1998.2352</v>
       </c>
       <c r="G3" t="n">
-        <v>-25670.4384</v>
+        <v>186</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>827.9946</v>
       </c>
       <c r="G4" t="n">
-        <v>-25670.4384</v>
+        <v>185.95</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>335</v>
       </c>
       <c r="G5" t="n">
-        <v>-26005.4384</v>
+        <v>185.8</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>200</v>
       </c>
       <c r="G6" t="n">
-        <v>-26005.4384</v>
+        <v>185.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>66.71129999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>-26005.4384</v>
+        <v>185.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>1232.805</v>
       </c>
       <c r="G8" t="n">
-        <v>-27238.2434</v>
+        <v>185.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>1026.086</v>
       </c>
       <c r="G9" t="n">
-        <v>-27238.2434</v>
+        <v>185.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>-27198.2434</v>
+        <v>185.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>6648.078</v>
       </c>
       <c r="G11" t="n">
-        <v>-33846.3214</v>
+        <v>185.05</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -783,6 +797,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -804,7 +819,7 @@
         <v>29.5356</v>
       </c>
       <c r="G12" t="n">
-        <v>-33816.7858</v>
+        <v>184.95</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -824,6 +839,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -845,7 +861,7 @@
         <v>826.086</v>
       </c>
       <c r="G13" t="n">
-        <v>-34642.8718</v>
+        <v>184.85</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -865,6 +881,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -886,7 +903,7 @@
         <v>820.7827</v>
       </c>
       <c r="G14" t="n">
-        <v>-33822.0891</v>
+        <v>184.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -904,6 +921,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -925,7 +943,7 @@
         <v>1188.1002</v>
       </c>
       <c r="G15" t="n">
-        <v>-32633.9889</v>
+        <v>184.75</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -943,6 +961,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -964,7 +983,7 @@
         <v>34581.71643809524</v>
       </c>
       <c r="G16" t="n">
-        <v>1947.727538095241</v>
+        <v>184.95</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -982,6 +1001,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1003,7 +1023,7 @@
         <v>16758</v>
       </c>
       <c r="G17" t="n">
-        <v>1947.727538095241</v>
+        <v>185.35</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1021,6 +1041,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1042,7 +1063,7 @@
         <v>2216.6095</v>
       </c>
       <c r="G18" t="n">
-        <v>-268.8819619047586</v>
+        <v>185.65</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1060,6 +1081,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1081,7 +1103,7 @@
         <v>9632.347299999999</v>
       </c>
       <c r="G19" t="n">
-        <v>9363.46533809524</v>
+        <v>186</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1099,6 +1121,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1120,7 +1143,7 @@
         <v>65.3018</v>
       </c>
       <c r="G20" t="n">
-        <v>9298.163538095241</v>
+        <v>186.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1138,6 +1161,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1159,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>9304.163538095241</v>
+        <v>186.25</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1177,6 +1201,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1198,7 +1223,7 @@
         <v>179.6438659685864</v>
       </c>
       <c r="G22" t="n">
-        <v>9483.807404063828</v>
+        <v>186.35</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1216,6 +1241,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1237,7 +1263,7 @@
         <v>682</v>
       </c>
       <c r="G23" t="n">
-        <v>8801.807404063828</v>
+        <v>186.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1255,6 +1281,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1276,7 +1303,7 @@
         <v>598.802</v>
       </c>
       <c r="G24" t="n">
-        <v>8801.807404063828</v>
+        <v>186.45</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1294,6 +1321,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1315,7 +1343,7 @@
         <v>10.5292</v>
       </c>
       <c r="G25" t="n">
-        <v>8812.336604063828</v>
+        <v>186.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1333,6 +1361,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1354,7 +1383,7 @@
         <v>10.5028</v>
       </c>
       <c r="G26" t="n">
-        <v>8801.833804063828</v>
+        <v>186.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1372,6 +1401,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1393,7 +1423,7 @@
         <v>1872.015789473684</v>
       </c>
       <c r="G27" t="n">
-        <v>10673.84959353751</v>
+        <v>187.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1411,6 +1441,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1432,7 +1463,7 @@
         <v>253.5031</v>
       </c>
       <c r="G28" t="n">
-        <v>10420.34649353751</v>
+        <v>187.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1450,6 +1481,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1471,7 +1503,7 @@
         <v>450</v>
       </c>
       <c r="G29" t="n">
-        <v>10420.34649353751</v>
+        <v>187.45</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1489,6 +1521,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1510,7 +1543,7 @@
         <v>53.69511122994653</v>
       </c>
       <c r="G30" t="n">
-        <v>10420.34649353751</v>
+        <v>187.55</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1528,6 +1561,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1549,7 +1583,7 @@
         <v>776</v>
       </c>
       <c r="G31" t="n">
-        <v>9644.346493537512</v>
+        <v>187.65</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1567,6 +1601,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1588,7 +1623,7 @@
         <v>306.6631</v>
       </c>
       <c r="G32" t="n">
-        <v>9951.009593537512</v>
+        <v>187.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1606,6 +1641,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1627,7 +1663,7 @@
         <v>353.647</v>
       </c>
       <c r="G33" t="n">
-        <v>9597.362593537511</v>
+        <v>187.95</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1645,6 +1681,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1666,7 +1703,7 @@
         <v>200</v>
       </c>
       <c r="G34" t="n">
-        <v>9597.362593537511</v>
+        <v>188.05</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1684,6 +1721,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1705,7 +1743,7 @@
         <v>1024400</v>
       </c>
       <c r="G35" t="n">
-        <v>1033997.362593538</v>
+        <v>188.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1723,6 +1761,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1744,7 +1783,7 @@
         <v>2160000</v>
       </c>
       <c r="G36" t="n">
-        <v>1033997.362593538</v>
+        <v>188.05</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1762,6 +1801,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1783,7 +1823,7 @@
         <v>765043.9424000001</v>
       </c>
       <c r="G37" t="n">
-        <v>1033997.362593538</v>
+        <v>187.75</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1801,6 +1841,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1822,7 +1863,7 @@
         <v>4558.9498</v>
       </c>
       <c r="G38" t="n">
-        <v>1033997.362593538</v>
+        <v>187.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1840,6 +1881,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1861,7 +1903,7 @@
         <v>9.919700000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>1033997.362593538</v>
+        <v>187.35</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1879,6 +1921,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1900,7 +1943,7 @@
         <v>1813.8513</v>
       </c>
       <c r="G40" t="n">
-        <v>1033997.362593538</v>
+        <v>187.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1918,6 +1961,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1939,7 +1983,7 @@
         <v>2992.5</v>
       </c>
       <c r="G41" t="n">
-        <v>1031004.862593538</v>
+        <v>187.15</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1957,6 +2001,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1978,7 +2023,7 @@
         <v>9596.3797</v>
       </c>
       <c r="G42" t="n">
-        <v>1040601.242293538</v>
+        <v>187.05</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1996,6 +2041,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2017,7 +2063,7 @@
         <v>28198.9999</v>
       </c>
       <c r="G43" t="n">
-        <v>1040601.242293538</v>
+        <v>187.05</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2035,6 +2081,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2056,7 +2103,7 @@
         <v>1804493.22</v>
       </c>
       <c r="G44" t="n">
-        <v>2845094.462293537</v>
+        <v>187.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2074,6 +2121,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2095,7 +2143,7 @@
         <v>365087.013</v>
       </c>
       <c r="G45" t="n">
-        <v>2480007.449293538</v>
+        <v>186.95</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2113,6 +2161,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2134,7 +2183,7 @@
         <v>990510.9570000001</v>
       </c>
       <c r="G46" t="n">
-        <v>3470518.406293537</v>
+        <v>187.05</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2152,6 +2201,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2173,7 +2223,7 @@
         <v>2531200</v>
       </c>
       <c r="G47" t="n">
-        <v>3470518.406293537</v>
+        <v>186.95</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2191,6 +2241,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2212,7 +2263,7 @@
         <v>2580400</v>
       </c>
       <c r="G48" t="n">
-        <v>3470518.406293537</v>
+        <v>187</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2230,6 +2281,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2251,7 +2303,7 @@
         <v>1760000</v>
       </c>
       <c r="G49" t="n">
-        <v>3470518.406293537</v>
+        <v>187.05</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2269,6 +2321,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2290,7 +2343,7 @@
         <v>800</v>
       </c>
       <c r="G50" t="n">
-        <v>3469718.406293537</v>
+        <v>187.05</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2308,6 +2361,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2329,7 +2383,7 @@
         <v>0.0001</v>
       </c>
       <c r="G51" t="n">
-        <v>3469718.406293537</v>
+        <v>187.05</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2347,6 +2401,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2368,7 +2423,7 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>3469728.406293537</v>
+        <v>187.15</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2386,6 +2441,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2407,7 +2463,7 @@
         <v>819.629</v>
       </c>
       <c r="G53" t="n">
-        <v>3468908.777293537</v>
+        <v>187.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2425,6 +2481,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2446,7 +2503,7 @@
         <v>5775</v>
       </c>
       <c r="G54" t="n">
-        <v>3463133.777293537</v>
+        <v>187.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2464,6 +2521,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2485,7 +2543,7 @@
         <v>1456.216</v>
       </c>
       <c r="G55" t="n">
-        <v>3464589.993293537</v>
+        <v>187.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2503,6 +2561,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2524,7 +2583,7 @@
         <v>1056.216</v>
       </c>
       <c r="G56" t="n">
-        <v>3464589.993293537</v>
+        <v>187</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2542,6 +2601,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2563,7 +2623,7 @@
         <v>5399.216</v>
       </c>
       <c r="G57" t="n">
-        <v>3459190.777293537</v>
+        <v>187.05</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2581,6 +2641,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2602,7 +2663,7 @@
         <v>1010.1861</v>
       </c>
       <c r="G58" t="n">
-        <v>3460200.963393537</v>
+        <v>187.15</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2620,6 +2681,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2641,7 +2703,7 @@
         <v>38.5843</v>
       </c>
       <c r="G59" t="n">
-        <v>3460200.963393537</v>
+        <v>187.25</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2659,6 +2721,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2680,7 +2743,7 @@
         <v>525.0774</v>
       </c>
       <c r="G60" t="n">
-        <v>3460726.040793537</v>
+        <v>187.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2698,6 +2761,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2719,7 +2783,7 @@
         <v>38.5843</v>
       </c>
       <c r="G61" t="n">
-        <v>3460687.456493537</v>
+        <v>187.55</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2737,6 +2801,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2758,7 +2823,7 @@
         <v>838.095</v>
       </c>
       <c r="G62" t="n">
-        <v>3460687.456493537</v>
+        <v>187.65</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2776,6 +2841,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2797,7 +2863,7 @@
         <v>425.4827</v>
       </c>
       <c r="G63" t="n">
-        <v>3461112.939193537</v>
+        <v>187.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2815,6 +2881,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2836,7 +2903,7 @@
         <v>1190</v>
       </c>
       <c r="G64" t="n">
-        <v>3461112.939193537</v>
+        <v>187.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2854,6 +2921,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2875,7 +2943,7 @@
         <v>393</v>
       </c>
       <c r="G65" t="n">
-        <v>3461112.939193537</v>
+        <v>188</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2893,6 +2961,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2914,7 +2983,7 @@
         <v>179.7607</v>
       </c>
       <c r="G66" t="n">
-        <v>3461112.939193537</v>
+        <v>188.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2932,6 +3001,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2953,7 +3023,7 @@
         <v>518.8726</v>
       </c>
       <c r="G67" t="n">
-        <v>3460594.066593537</v>
+        <v>188.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2971,6 +3041,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2992,7 +3063,7 @@
         <v>9392.999</v>
       </c>
       <c r="G68" t="n">
-        <v>3451201.067593537</v>
+        <v>188.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3010,6 +3081,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3031,7 +3103,7 @@
         <v>556740</v>
       </c>
       <c r="G69" t="n">
-        <v>3451201.067593537</v>
+        <v>188.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3049,6 +3121,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3070,7 +3143,7 @@
         <v>1268650.29</v>
       </c>
       <c r="G70" t="n">
-        <v>3451201.067593537</v>
+        <v>188.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3088,6 +3161,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3109,7 +3183,7 @@
         <v>996590</v>
       </c>
       <c r="G71" t="n">
-        <v>4447791.067593537</v>
+        <v>188.45</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3127,6 +3201,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3148,7 +3223,7 @@
         <v>1340000</v>
       </c>
       <c r="G72" t="n">
-        <v>4447791.067593537</v>
+        <v>188.45</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3166,6 +3241,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3187,7 +3263,7 @@
         <v>1340000</v>
       </c>
       <c r="G73" t="n">
-        <v>4447791.067593537</v>
+        <v>188.55</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3205,6 +3281,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3226,7 +3303,7 @@
         <v>1355136.9699</v>
       </c>
       <c r="G74" t="n">
-        <v>4447791.067593537</v>
+        <v>188.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3244,6 +3321,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3265,23 +3343,24 @@
         <v>608039</v>
       </c>
       <c r="G75" t="n">
-        <v>4447791.067593537</v>
+        <v>188.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
+        <v>1.021857923497268</v>
       </c>
     </row>
     <row r="76">
@@ -3304,24 +3383,21 @@
         <v>491461</v>
       </c>
       <c r="G76" t="n">
-        <v>4447791.067593537</v>
+        <v>189.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3343,7 +3419,7 @@
         <v>2090.9275</v>
       </c>
       <c r="G77" t="n">
-        <v>4445700.140093537</v>
+        <v>189.15</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3353,14 +3429,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3382,7 +3455,7 @@
         <v>9733.852699999999</v>
       </c>
       <c r="G78" t="n">
-        <v>4455433.992793537</v>
+        <v>189.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3392,14 +3465,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3421,7 +3491,7 @@
         <v>2080.1746</v>
       </c>
       <c r="G79" t="n">
-        <v>4453353.818193537</v>
+        <v>189.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3431,12 +3501,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3458,13 +3527,13 @@
         <v>721.3249</v>
       </c>
       <c r="G80" t="n">
-        <v>4453353.818193537</v>
+        <v>189.15</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3472,6 +3541,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3493,7 +3563,7 @@
         <v>15667.5872</v>
       </c>
       <c r="G81" t="n">
-        <v>4437686.230993537</v>
+        <v>189.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3507,6 +3577,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3528,7 +3599,7 @@
         <v>11.68783068783069</v>
       </c>
       <c r="G82" t="n">
-        <v>4437697.918824225</v>
+        <v>189</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3542,6 +3613,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3563,7 +3635,7 @@
         <v>5000</v>
       </c>
       <c r="G83" t="n">
-        <v>4432697.918824225</v>
+        <v>188.85</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3577,6 +3649,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3598,13 +3671,13 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>4432698.918824225</v>
+        <v>188.75</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3612,6 +3685,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3633,7 +3707,7 @@
         <v>5000</v>
       </c>
       <c r="G85" t="n">
-        <v>4427698.918824225</v>
+        <v>188.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3647,6 +3721,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3668,13 +3743,13 @@
         <v>2389</v>
       </c>
       <c r="G86" t="n">
-        <v>4430087.918824225</v>
+        <v>188.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3682,6 +3757,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3703,13 +3779,13 @@
         <v>878.5445999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>4430087.918824225</v>
+        <v>188.35</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3717,6 +3793,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3738,13 +3815,13 @@
         <v>874.8972</v>
       </c>
       <c r="G88" t="n">
-        <v>4430087.918824225</v>
+        <v>188.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3752,6 +3829,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3773,13 +3851,13 @@
         <v>1956.0377</v>
       </c>
       <c r="G89" t="n">
-        <v>4428131.881124225</v>
+        <v>188.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3787,6 +3865,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3808,13 +3887,13 @@
         <v>6648.1574</v>
       </c>
       <c r="G90" t="n">
-        <v>4421483.723724225</v>
+        <v>188.15</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3822,6 +3901,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3843,13 +3923,13 @@
         <v>8377.289500000001</v>
       </c>
       <c r="G91" t="n">
-        <v>4429861.013224225</v>
+        <v>188</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3857,6 +3937,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3878,13 +3959,13 @@
         <v>1222</v>
       </c>
       <c r="G92" t="n">
-        <v>4431083.013224225</v>
+        <v>187.85</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3892,6 +3973,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3913,7 +3995,7 @@
         <v>8766.021199999999</v>
       </c>
       <c r="G93" t="n">
-        <v>4422316.992024224</v>
+        <v>187.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3927,6 +4009,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3948,7 +4031,7 @@
         <v>2066.9721</v>
       </c>
       <c r="G94" t="n">
-        <v>4420250.019924224</v>
+        <v>187.65</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3962,6 +4045,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3983,7 +4067,7 @@
         <v>2054.8815</v>
       </c>
       <c r="G95" t="n">
-        <v>4420250.019924224</v>
+        <v>187.55</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3997,6 +4081,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4018,13 +4103,13 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>4420251.019924224</v>
+        <v>187.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4032,6 +4117,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4053,7 +4139,7 @@
         <v>60.4026</v>
       </c>
       <c r="G97" t="n">
-        <v>4420190.617324225</v>
+        <v>187.35</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4067,6 +4153,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4088,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>4420192.617324225</v>
+        <v>187.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4102,6 +4189,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4123,7 +4211,7 @@
         <v>7168.4764</v>
       </c>
       <c r="G99" t="n">
-        <v>4413024.140924225</v>
+        <v>187.05</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4137,6 +4225,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4158,13 +4247,13 @@
         <v>75.99979999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>4413024.140924225</v>
+        <v>186.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4172,6 +4261,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4193,13 +4283,13 @@
         <v>473.0714</v>
       </c>
       <c r="G101" t="n">
-        <v>4413497.212324224</v>
+        <v>186.85</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4207,6 +4297,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4228,13 +4319,13 @@
         <v>38.1995</v>
       </c>
       <c r="G102" t="n">
-        <v>4413535.411824225</v>
+        <v>186.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4242,6 +4333,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4263,7 +4355,7 @@
         <v>29</v>
       </c>
       <c r="G103" t="n">
-        <v>4413535.411824225</v>
+        <v>186.95</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4277,6 +4369,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4298,13 +4391,13 @@
         <v>2741.0729</v>
       </c>
       <c r="G104" t="n">
-        <v>4410794.338924224</v>
+        <v>186.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4312,6 +4405,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4333,7 +4427,7 @@
         <v>38.1995</v>
       </c>
       <c r="G105" t="n">
-        <v>4410756.139424224</v>
+        <v>186.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4347,6 +4441,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4368,7 +4463,7 @@
         <v>1550.2291</v>
       </c>
       <c r="G106" t="n">
-        <v>4410756.139424224</v>
+        <v>186.65</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4382,6 +4477,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4403,7 +4499,7 @@
         <v>29</v>
       </c>
       <c r="G107" t="n">
-        <v>4410785.139424224</v>
+        <v>186.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4417,6 +4513,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4438,13 +4535,13 @@
         <v>199</v>
       </c>
       <c r="G108" t="n">
-        <v>4410586.139424224</v>
+        <v>186.45</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4452,6 +4549,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4473,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>4410587.139424224</v>
+        <v>186.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4487,6 +4585,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4508,7 +4607,7 @@
         <v>4000</v>
       </c>
       <c r="G110" t="n">
-        <v>4406587.139424224</v>
+        <v>186.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4522,6 +4621,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4543,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>4406588.139424224</v>
+        <v>186.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4557,6 +4657,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4578,13 +4679,13 @@
         <v>1011</v>
       </c>
       <c r="G112" t="n">
-        <v>4405577.139424224</v>
+        <v>186.35</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4592,6 +4693,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4613,13 +4715,13 @@
         <v>152</v>
       </c>
       <c r="G113" t="n">
-        <v>4405577.139424224</v>
+        <v>186.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4627,6 +4729,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4648,13 +4751,13 @@
         <v>1433.7718</v>
       </c>
       <c r="G114" t="n">
-        <v>4407010.911224225</v>
+        <v>186.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4662,6 +4765,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4683,7 +4787,7 @@
         <v>2798.1215</v>
       </c>
       <c r="G115" t="n">
-        <v>4409809.032724225</v>
+        <v>186.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4697,6 +4801,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4718,13 +4823,13 @@
         <v>3169.6708</v>
       </c>
       <c r="G116" t="n">
-        <v>4412978.703524225</v>
+        <v>186</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4732,6 +4837,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4753,7 +4859,7 @@
         <v>3611.4565</v>
       </c>
       <c r="G117" t="n">
-        <v>4409367.247024225</v>
+        <v>186</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4767,6 +4873,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4788,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>4409368.247024225</v>
+        <v>186</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4802,6 +4909,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4823,7 +4931,7 @@
         <v>205.3129</v>
       </c>
       <c r="G119" t="n">
-        <v>4409368.247024225</v>
+        <v>186.05</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4837,6 +4945,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4858,7 +4967,7 @@
         <v>5500</v>
       </c>
       <c r="G120" t="n">
-        <v>4409368.247024225</v>
+        <v>186.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4872,6 +4981,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4893,7 +5003,7 @@
         <v>0.3648</v>
       </c>
       <c r="G121" t="n">
-        <v>4409368.247024225</v>
+        <v>186.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4907,6 +5017,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4928,7 +5039,7 @@
         <v>3574.5658</v>
       </c>
       <c r="G122" t="n">
-        <v>4412942.812824225</v>
+        <v>186.05</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4942,6 +5053,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4963,7 +5075,7 @@
         <v>172.1412</v>
       </c>
       <c r="G123" t="n">
-        <v>4412770.671624225</v>
+        <v>185.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4977,6 +5089,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4998,13 +5111,13 @@
         <v>12.16042780748663</v>
       </c>
       <c r="G124" t="n">
-        <v>4412782.832052032</v>
+        <v>185.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5012,6 +5125,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5033,7 +5147,7 @@
         <v>171</v>
       </c>
       <c r="G125" t="n">
-        <v>4412611.832052032</v>
+        <v>185.85</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5047,6 +5161,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5068,13 +5183,13 @@
         <v>9226.758900000001</v>
       </c>
       <c r="G126" t="n">
-        <v>4403385.073152033</v>
+        <v>185.85</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5082,6 +5197,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5103,7 +5219,7 @@
         <v>2250.1084</v>
       </c>
       <c r="G127" t="n">
-        <v>4403385.073152033</v>
+        <v>185.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5117,6 +5233,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5138,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>4403386.073152033</v>
+        <v>186</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5152,6 +5269,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5173,7 +5291,7 @@
         <v>7908.7899</v>
       </c>
       <c r="G129" t="n">
-        <v>4403386.073152033</v>
+        <v>185.95</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5187,6 +5305,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5208,13 +5327,13 @@
         <v>210.1265</v>
       </c>
       <c r="G130" t="n">
-        <v>4403386.073152033</v>
+        <v>186</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5222,6 +5341,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5243,13 +5363,13 @@
         <v>498.3689</v>
       </c>
       <c r="G131" t="n">
-        <v>4403386.073152033</v>
+        <v>186.05</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5257,6 +5377,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5278,13 +5399,13 @@
         <v>809.0795000000001</v>
       </c>
       <c r="G132" t="n">
-        <v>4403386.073152033</v>
+        <v>186.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5292,6 +5413,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5313,7 +5435,7 @@
         <v>1716.0925</v>
       </c>
       <c r="G133" t="n">
-        <v>4403386.073152033</v>
+        <v>186.15</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5327,6 +5449,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5348,7 +5471,7 @@
         <v>223</v>
       </c>
       <c r="G134" t="n">
-        <v>4403386.073152033</v>
+        <v>186.15</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5362,6 +5485,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5383,7 +5507,7 @@
         <v>650</v>
       </c>
       <c r="G135" t="n">
-        <v>4403386.073152033</v>
+        <v>186.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5397,6 +5521,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5418,7 +5543,7 @@
         <v>3509.576572192514</v>
       </c>
       <c r="G136" t="n">
-        <v>4406895.649724226</v>
+        <v>186.25</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5432,6 +5557,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5453,7 +5579,7 @@
         <v>3986.8422</v>
       </c>
       <c r="G137" t="n">
-        <v>4402908.807524226</v>
+        <v>186.25</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5467,6 +5593,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5488,7 +5615,7 @@
         <v>11728.5798</v>
       </c>
       <c r="G138" t="n">
-        <v>4391180.227724225</v>
+        <v>186.15</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5502,6 +5629,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5523,13 +5651,13 @@
         <v>6358.3368</v>
       </c>
       <c r="G139" t="n">
-        <v>4397538.564524225</v>
+        <v>186.05</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5537,6 +5665,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5558,7 +5687,7 @@
         <v>8744.106100000001</v>
       </c>
       <c r="G140" t="n">
-        <v>4388794.458424225</v>
+        <v>185.95</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5572,6 +5701,7 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5593,7 +5723,7 @@
         <v>5915.9998</v>
       </c>
       <c r="G141" t="n">
-        <v>4382878.458624224</v>
+        <v>185.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5607,6 +5737,7 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest RDN.xlsx
+++ b/BackTest/2019-10-30 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:N170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C2" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D2" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>186.05</v>
+        <v>-24965.4694</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -486,10 +486,10 @@
         <v>186</v>
       </c>
       <c r="F3" t="n">
-        <v>1998.2352</v>
+        <v>1970.5079</v>
       </c>
       <c r="G3" t="n">
-        <v>186</v>
+        <v>-26935.9773</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -522,10 +522,10 @@
         <v>186</v>
       </c>
       <c r="F4" t="n">
-        <v>827.9946</v>
+        <v>3186.4199</v>
       </c>
       <c r="G4" t="n">
-        <v>185.95</v>
+        <v>-26935.9773</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C5" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D5" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E5" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F5" t="n">
-        <v>335</v>
+        <v>5023</v>
       </c>
       <c r="G5" t="n">
-        <v>185.8</v>
+        <v>-26935.9773</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C6" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D6" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E6" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>185.6</v>
+        <v>-26934.9773</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C7" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D7" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E7" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F7" t="n">
-        <v>66.71129999999999</v>
+        <v>436.7349</v>
       </c>
       <c r="G7" t="n">
-        <v>185.4</v>
+        <v>-27371.7122</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D8" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E8" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F8" t="n">
-        <v>1232.805</v>
+        <v>550</v>
       </c>
       <c r="G8" t="n">
-        <v>185.3</v>
+        <v>-27371.7122</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C9" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D9" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E9" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F9" t="n">
-        <v>1026.086</v>
+        <v>179.9999</v>
       </c>
       <c r="G9" t="n">
-        <v>185.2</v>
+        <v>-27371.7122</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C10" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D10" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E10" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>185.1</v>
+        <v>-27370.7122</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,38 +762,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C11" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D11" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E11" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F11" t="n">
-        <v>6648.078</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>185.05</v>
+        <v>-27369.7122</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>184</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -804,38 +798,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C12" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D12" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E12" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F12" t="n">
-        <v>29.5356</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>184.95</v>
+        <v>-27371.7122</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>183</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -846,38 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C13" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D13" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E13" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F13" t="n">
-        <v>826.086</v>
+        <v>946</v>
       </c>
       <c r="G13" t="n">
-        <v>184.85</v>
+        <v>-27371.7122</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>184</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -888,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C14" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D14" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E14" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F14" t="n">
-        <v>820.7827</v>
+        <v>5299.853</v>
       </c>
       <c r="G14" t="n">
-        <v>184.7</v>
+        <v>-22071.8592</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -913,11 +895,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -928,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C15" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D15" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E15" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F15" t="n">
-        <v>1188.1002</v>
+        <v>19.365</v>
       </c>
       <c r="G15" t="n">
-        <v>184.75</v>
+        <v>-22071.8592</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -953,11 +931,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -971,19 +945,19 @@
         <v>188</v>
       </c>
       <c r="C16" t="n">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D16" t="n">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E16" t="n">
         <v>188</v>
       </c>
       <c r="F16" t="n">
-        <v>34581.71643809524</v>
+        <v>852.4494</v>
       </c>
       <c r="G16" t="n">
-        <v>184.95</v>
+        <v>-22071.8592</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -993,11 +967,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1008,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C17" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D17" t="n">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E17" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F17" t="n">
-        <v>16758</v>
+        <v>785</v>
       </c>
       <c r="G17" t="n">
-        <v>185.35</v>
+        <v>-22856.8592</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1033,11 +1003,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1048,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C18" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D18" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E18" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F18" t="n">
-        <v>2216.6095</v>
+        <v>577.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>185.65</v>
+        <v>-22856.8592</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1073,11 +1039,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1088,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C19" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D19" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E19" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F19" t="n">
-        <v>9632.347299999999</v>
+        <v>5939.8563</v>
       </c>
       <c r="G19" t="n">
-        <v>186</v>
+        <v>-22856.8592</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1113,11 +1075,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1128,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C20" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D20" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E20" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F20" t="n">
-        <v>65.3018</v>
+        <v>32.6884</v>
       </c>
       <c r="G20" t="n">
-        <v>186.1</v>
+        <v>-22889.5476</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1153,11 +1111,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C21" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D21" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E21" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>11228.6149</v>
       </c>
       <c r="G21" t="n">
-        <v>186.25</v>
+        <v>-11660.9327</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1193,11 +1147,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1208,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C22" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D22" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E22" t="n">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F22" t="n">
-        <v>179.6438659685864</v>
+        <v>2013.7672</v>
       </c>
       <c r="G22" t="n">
-        <v>186.35</v>
+        <v>-11660.9327</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1233,11 +1183,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1260,10 +1206,10 @@
         <v>187</v>
       </c>
       <c r="F23" t="n">
-        <v>682</v>
+        <v>459.3262</v>
       </c>
       <c r="G23" t="n">
-        <v>186.4</v>
+        <v>-11660.9327</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1273,11 +1219,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1288,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C24" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D24" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E24" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F24" t="n">
-        <v>598.802</v>
+        <v>9305.2299</v>
       </c>
       <c r="G24" t="n">
-        <v>186.45</v>
+        <v>-20966.1626</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1313,11 +1255,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1328,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C25" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D25" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E25" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F25" t="n">
-        <v>10.5292</v>
+        <v>5762.6359</v>
       </c>
       <c r="G25" t="n">
-        <v>186.8</v>
+        <v>-26728.7985</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1353,11 +1291,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1368,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C26" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D26" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F26" t="n">
-        <v>10.5028</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>186.9</v>
+        <v>-26727.7985</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1393,11 +1327,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1408,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C27" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D27" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E27" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F27" t="n">
-        <v>1872.015789473684</v>
+        <v>37.1734</v>
       </c>
       <c r="G27" t="n">
-        <v>187.2</v>
+        <v>-26764.9719</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1433,11 +1363,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1448,36 +1374,36 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C28" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D28" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E28" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F28" t="n">
-        <v>253.5031</v>
+        <v>600</v>
       </c>
       <c r="G28" t="n">
-        <v>187.3</v>
+        <v>-26164.9719</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="n">
+        <v>184</v>
+      </c>
+      <c r="K28" t="n">
+        <v>184</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1488,34 +1414,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C29" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D29" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E29" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F29" t="n">
-        <v>450</v>
+        <v>2491.7687</v>
       </c>
       <c r="G29" t="n">
-        <v>187.45</v>
+        <v>-23673.2032</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>185</v>
+      </c>
+      <c r="K29" t="n">
+        <v>184</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -1531,19 +1461,19 @@
         <v>186</v>
       </c>
       <c r="C30" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D30" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E30" t="n">
         <v>186</v>
       </c>
       <c r="F30" t="n">
-        <v>53.69511122994653</v>
+        <v>3181.5915</v>
       </c>
       <c r="G30" t="n">
-        <v>187.55</v>
+        <v>-23673.2032</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1552,10 +1482,12 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>184</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -1568,22 +1500,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C31" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D31" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E31" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F31" t="n">
-        <v>776</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>187.65</v>
+        <v>-23672.2032</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1593,11 +1525,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1608,22 +1536,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C32" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E32" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F32" t="n">
-        <v>306.6631</v>
+        <v>1998.2352</v>
       </c>
       <c r="G32" t="n">
-        <v>187.8</v>
+        <v>-25670.4384</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1633,11 +1561,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1660,10 +1584,10 @@
         <v>186</v>
       </c>
       <c r="F33" t="n">
-        <v>353.647</v>
+        <v>827.9946</v>
       </c>
       <c r="G33" t="n">
-        <v>187.95</v>
+        <v>-25670.4384</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1673,11 +1597,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1688,22 +1608,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C34" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D34" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E34" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F34" t="n">
-        <v>200</v>
+        <v>335</v>
       </c>
       <c r="G34" t="n">
-        <v>188.05</v>
+        <v>-26005.4384</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1713,11 +1633,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1644,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C35" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D35" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E35" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F35" t="n">
-        <v>1024400</v>
+        <v>200</v>
       </c>
       <c r="G35" t="n">
-        <v>188.1</v>
+        <v>-26005.4384</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1753,11 +1669,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1768,22 +1680,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C36" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D36" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E36" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F36" t="n">
-        <v>2160000</v>
+        <v>66.71129999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>188.05</v>
+        <v>-26005.4384</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1793,11 +1705,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1808,34 +1716,36 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C37" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D37" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E37" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F37" t="n">
-        <v>765043.9424000001</v>
+        <v>1232.805</v>
       </c>
       <c r="G37" t="n">
-        <v>187.75</v>
+        <v>-27238.2434</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>184</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -1848,30 +1758,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C38" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D38" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E38" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F38" t="n">
-        <v>4558.9498</v>
+        <v>1026.086</v>
       </c>
       <c r="G38" t="n">
-        <v>187.6</v>
+        <v>-27238.2434</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>183</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1888,30 +1800,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C39" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D39" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E39" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F39" t="n">
-        <v>9.919700000000001</v>
+        <v>40</v>
       </c>
       <c r="G39" t="n">
-        <v>187.35</v>
+        <v>-27198.2434</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>183</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1928,30 +1842,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C40" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D40" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E40" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F40" t="n">
-        <v>1813.8513</v>
+        <v>6648.078</v>
       </c>
       <c r="G40" t="n">
-        <v>187.3</v>
+        <v>-33846.3214</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>184</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -1968,30 +1884,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C41" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D41" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E41" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F41" t="n">
-        <v>2992.5</v>
+        <v>29.5356</v>
       </c>
       <c r="G41" t="n">
-        <v>187.15</v>
+        <v>-33816.7858</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>183</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -2008,30 +1926,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C42" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D42" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E42" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F42" t="n">
-        <v>9596.3797</v>
+        <v>826.086</v>
       </c>
       <c r="G42" t="n">
-        <v>187.05</v>
+        <v>-34642.8718</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>184</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -2048,30 +1968,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C43" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D43" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E43" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F43" t="n">
-        <v>28198.9999</v>
+        <v>820.7827</v>
       </c>
       <c r="G43" t="n">
-        <v>187.05</v>
+        <v>-33822.0891</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>183</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2088,30 +2010,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C44" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D44" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E44" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F44" t="n">
-        <v>1804493.22</v>
+        <v>1188.1002</v>
       </c>
       <c r="G44" t="n">
-        <v>187.1</v>
+        <v>-32633.9889</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>184</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2131,27 +2055,29 @@
         <v>188</v>
       </c>
       <c r="C45" t="n">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D45" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E45" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F45" t="n">
-        <v>365087.013</v>
+        <v>34581.71643809524</v>
       </c>
       <c r="G45" t="n">
-        <v>186.95</v>
+        <v>1947.727538095241</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>187</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2168,22 +2094,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C46" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D46" t="n">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E46" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F46" t="n">
-        <v>990510.9570000001</v>
+        <v>16758</v>
       </c>
       <c r="G46" t="n">
-        <v>187.05</v>
+        <v>1947.727538095241</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2208,22 +2134,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C47" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D47" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E47" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F47" t="n">
-        <v>2531200</v>
+        <v>2216.6095</v>
       </c>
       <c r="G47" t="n">
-        <v>186.95</v>
+        <v>-268.8819619047586</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2248,22 +2174,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C48" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D48" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E48" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F48" t="n">
-        <v>2580400</v>
+        <v>9632.347299999999</v>
       </c>
       <c r="G48" t="n">
-        <v>187</v>
+        <v>9363.46533809524</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2300,10 +2226,10 @@
         <v>188</v>
       </c>
       <c r="F49" t="n">
-        <v>1760000</v>
+        <v>65.3018</v>
       </c>
       <c r="G49" t="n">
-        <v>187.05</v>
+        <v>9298.163538095241</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2328,22 +2254,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C50" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D50" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E50" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F50" t="n">
-        <v>800</v>
+        <v>6</v>
       </c>
       <c r="G50" t="n">
-        <v>187.05</v>
+        <v>9304.163538095241</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2368,22 +2294,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C51" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D51" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E51" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0001</v>
+        <v>179.6438659685864</v>
       </c>
       <c r="G51" t="n">
-        <v>187.05</v>
+        <v>9483.807404063828</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2408,22 +2334,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C52" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D52" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E52" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>682</v>
       </c>
       <c r="G52" t="n">
-        <v>187.15</v>
+        <v>8801.807404063828</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2460,10 +2386,10 @@
         <v>187</v>
       </c>
       <c r="F53" t="n">
-        <v>819.629</v>
+        <v>598.802</v>
       </c>
       <c r="G53" t="n">
-        <v>187.2</v>
+        <v>8801.807404063828</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2488,22 +2414,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C54" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D54" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E54" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F54" t="n">
-        <v>5775</v>
+        <v>10.5292</v>
       </c>
       <c r="G54" t="n">
-        <v>187.2</v>
+        <v>8812.336604063828</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2528,22 +2454,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C55" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D55" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E55" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F55" t="n">
-        <v>1456.216</v>
+        <v>10.5028</v>
       </c>
       <c r="G55" t="n">
-        <v>187.1</v>
+        <v>8801.833804063828</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2568,22 +2494,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C56" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D56" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E56" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F56" t="n">
-        <v>1056.216</v>
+        <v>1872.015789473684</v>
       </c>
       <c r="G56" t="n">
-        <v>187</v>
+        <v>10673.84959353751</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2608,22 +2534,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C57" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D57" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E57" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F57" t="n">
-        <v>5399.216</v>
+        <v>253.5031</v>
       </c>
       <c r="G57" t="n">
-        <v>187.05</v>
+        <v>10420.34649353751</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2648,22 +2574,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C58" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D58" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E58" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F58" t="n">
-        <v>1010.1861</v>
+        <v>450</v>
       </c>
       <c r="G58" t="n">
-        <v>187.15</v>
+        <v>10420.34649353751</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2688,22 +2614,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C59" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D59" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E59" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F59" t="n">
-        <v>38.5843</v>
+        <v>53.69511122994653</v>
       </c>
       <c r="G59" t="n">
-        <v>187.25</v>
+        <v>10420.34649353751</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2728,22 +2654,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C60" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D60" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E60" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F60" t="n">
-        <v>525.0774</v>
+        <v>776</v>
       </c>
       <c r="G60" t="n">
-        <v>187.4</v>
+        <v>9644.346493537512</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2768,22 +2694,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C61" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D61" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E61" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F61" t="n">
-        <v>38.5843</v>
+        <v>306.6631</v>
       </c>
       <c r="G61" t="n">
-        <v>187.55</v>
+        <v>9951.009593537512</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2808,22 +2734,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C62" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D62" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E62" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F62" t="n">
-        <v>838.095</v>
+        <v>353.647</v>
       </c>
       <c r="G62" t="n">
-        <v>187.65</v>
+        <v>9597.362593537511</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2848,22 +2774,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C63" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D63" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E63" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F63" t="n">
-        <v>425.4827</v>
+        <v>200</v>
       </c>
       <c r="G63" t="n">
-        <v>187.8</v>
+        <v>9597.362593537511</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2888,22 +2814,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C64" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D64" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E64" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F64" t="n">
-        <v>1190</v>
+        <v>1024400</v>
       </c>
       <c r="G64" t="n">
-        <v>187.9</v>
+        <v>1033997.362593538</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2928,22 +2854,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C65" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D65" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E65" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F65" t="n">
-        <v>393</v>
+        <v>2160000</v>
       </c>
       <c r="G65" t="n">
-        <v>188</v>
+        <v>1033997.362593538</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2968,22 +2894,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C66" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D66" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E66" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F66" t="n">
-        <v>179.7607</v>
+        <v>765043.9424000001</v>
       </c>
       <c r="G66" t="n">
-        <v>188.1</v>
+        <v>1033997.362593538</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3008,22 +2934,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C67" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D67" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E67" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F67" t="n">
-        <v>518.8726</v>
+        <v>4558.9498</v>
       </c>
       <c r="G67" t="n">
-        <v>188.2</v>
+        <v>1033997.362593538</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3048,22 +2974,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C68" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D68" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E68" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F68" t="n">
-        <v>9392.999</v>
+        <v>9.919700000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>188.2</v>
+        <v>1033997.362593538</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3088,22 +3014,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C69" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D69" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E69" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F69" t="n">
-        <v>556740</v>
+        <v>1813.8513</v>
       </c>
       <c r="G69" t="n">
-        <v>188.2</v>
+        <v>1033997.362593538</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3128,22 +3054,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C70" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D70" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E70" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F70" t="n">
-        <v>1268650.29</v>
+        <v>2992.5</v>
       </c>
       <c r="G70" t="n">
-        <v>188.3</v>
+        <v>1031004.862593538</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3168,22 +3094,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C71" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D71" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E71" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F71" t="n">
-        <v>996590</v>
+        <v>9596.3797</v>
       </c>
       <c r="G71" t="n">
-        <v>188.45</v>
+        <v>1040601.242293538</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3208,22 +3134,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C72" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D72" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E72" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F72" t="n">
-        <v>1340000</v>
+        <v>28198.9999</v>
       </c>
       <c r="G72" t="n">
-        <v>188.45</v>
+        <v>1040601.242293538</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3248,22 +3174,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C73" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D73" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E73" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F73" t="n">
-        <v>1340000</v>
+        <v>1804493.22</v>
       </c>
       <c r="G73" t="n">
-        <v>188.55</v>
+        <v>2845094.462293537</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3288,22 +3214,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C74" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D74" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E74" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F74" t="n">
-        <v>1355136.9699</v>
+        <v>365087.013</v>
       </c>
       <c r="G74" t="n">
-        <v>188.7</v>
+        <v>2480007.449293538</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3328,72 +3254,76 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C75" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D75" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E75" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F75" t="n">
-        <v>608039</v>
+        <v>990510.9570000001</v>
       </c>
       <c r="G75" t="n">
-        <v>188.9</v>
+        <v>3470518.406293537</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
-        <v>1.021857923497268</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C76" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D76" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E76" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F76" t="n">
-        <v>491461</v>
+        <v>2531200</v>
       </c>
       <c r="G76" t="n">
-        <v>189.1</v>
+        <v>3470518.406293537</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3404,22 +3334,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C77" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D77" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E77" t="n">
         <v>187</v>
       </c>
       <c r="F77" t="n">
-        <v>2090.9275</v>
+        <v>2580400</v>
       </c>
       <c r="G77" t="n">
-        <v>189.15</v>
+        <v>3470518.406293537</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3429,7 +3359,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3440,22 +3374,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C78" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D78" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E78" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F78" t="n">
-        <v>9733.852699999999</v>
+        <v>1760000</v>
       </c>
       <c r="G78" t="n">
-        <v>189.2</v>
+        <v>3470518.406293537</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3465,7 +3399,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3476,32 +3414,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C79" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D79" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E79" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F79" t="n">
-        <v>2080.1746</v>
+        <v>800</v>
       </c>
       <c r="G79" t="n">
-        <v>189.2</v>
+        <v>3469718.406293537</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3512,32 +3454,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C80" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D80" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E80" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F80" t="n">
-        <v>721.3249</v>
+        <v>0.0001</v>
       </c>
       <c r="G80" t="n">
-        <v>189.15</v>
+        <v>3469718.406293537</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3494,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C81" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D81" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E81" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F81" t="n">
-        <v>15667.5872</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>189.1</v>
+        <v>3469728.406293537</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3573,7 +3519,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3587,19 +3537,19 @@
         <v>187</v>
       </c>
       <c r="C82" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D82" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E82" t="n">
         <v>187</v>
       </c>
       <c r="F82" t="n">
-        <v>11.68783068783069</v>
+        <v>819.629</v>
       </c>
       <c r="G82" t="n">
-        <v>189</v>
+        <v>3468908.777293537</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3609,7 +3559,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3620,22 +3574,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C83" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D83" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E83" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F83" t="n">
-        <v>5000</v>
+        <v>5775</v>
       </c>
       <c r="G83" t="n">
-        <v>188.85</v>
+        <v>3463133.777293537</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3645,7 +3599,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3656,32 +3614,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C84" t="n">
         <v>188</v>
       </c>
       <c r="D84" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E84" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>1456.216</v>
       </c>
       <c r="G84" t="n">
-        <v>188.75</v>
+        <v>3464589.993293537</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3692,22 +3654,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C85" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D85" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E85" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F85" t="n">
-        <v>5000</v>
+        <v>1056.216</v>
       </c>
       <c r="G85" t="n">
-        <v>188.6</v>
+        <v>3464589.993293537</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3717,7 +3679,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3731,29 +3697,33 @@
         <v>188</v>
       </c>
       <c r="C86" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D86" t="n">
         <v>188</v>
       </c>
       <c r="E86" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F86" t="n">
-        <v>2389</v>
+        <v>5399.216</v>
       </c>
       <c r="G86" t="n">
-        <v>188.5</v>
+        <v>3459190.777293537</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3764,32 +3734,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C87" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D87" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E87" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F87" t="n">
-        <v>878.5445999999999</v>
+        <v>1010.1861</v>
       </c>
       <c r="G87" t="n">
-        <v>188.35</v>
+        <v>3460200.963393537</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3800,32 +3774,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C88" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D88" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E88" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F88" t="n">
-        <v>874.8972</v>
+        <v>38.5843</v>
       </c>
       <c r="G88" t="n">
-        <v>188.3</v>
+        <v>3460200.963393537</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3836,32 +3814,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C89" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D89" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E89" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F89" t="n">
-        <v>1956.0377</v>
+        <v>525.0774</v>
       </c>
       <c r="G89" t="n">
-        <v>188.2</v>
+        <v>3460726.040793537</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3872,32 +3854,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C90" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D90" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E90" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F90" t="n">
-        <v>6648.1574</v>
+        <v>38.5843</v>
       </c>
       <c r="G90" t="n">
-        <v>188.15</v>
+        <v>3460687.456493537</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3908,32 +3894,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C91" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D91" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E91" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F91" t="n">
-        <v>8377.289500000001</v>
+        <v>838.095</v>
       </c>
       <c r="G91" t="n">
-        <v>188</v>
+        <v>3460687.456493537</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3944,32 +3934,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C92" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D92" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E92" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F92" t="n">
-        <v>1222</v>
+        <v>425.4827</v>
       </c>
       <c r="G92" t="n">
-        <v>187.85</v>
+        <v>3461112.939193537</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3980,32 +3974,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C93" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D93" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E93" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F93" t="n">
-        <v>8766.021199999999</v>
+        <v>1190</v>
       </c>
       <c r="G93" t="n">
-        <v>187.8</v>
+        <v>3461112.939193537</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4016,32 +4014,36 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C94" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D94" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E94" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F94" t="n">
-        <v>2066.9721</v>
+        <v>393</v>
       </c>
       <c r="G94" t="n">
-        <v>187.65</v>
+        <v>3461112.939193537</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4052,32 +4054,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C95" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D95" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E95" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F95" t="n">
-        <v>2054.8815</v>
+        <v>179.7607</v>
       </c>
       <c r="G95" t="n">
-        <v>187.55</v>
+        <v>3461112.939193537</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4088,32 +4094,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C96" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D96" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E96" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>518.8726</v>
       </c>
       <c r="G96" t="n">
-        <v>187.5</v>
+        <v>3460594.066593537</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4124,32 +4134,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C97" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D97" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E97" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F97" t="n">
-        <v>60.4026</v>
+        <v>9392.999</v>
       </c>
       <c r="G97" t="n">
-        <v>187.35</v>
+        <v>3451201.067593537</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4160,7 +4174,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C98" t="n">
         <v>188</v>
@@ -4169,23 +4183,27 @@
         <v>188</v>
       </c>
       <c r="E98" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>556740</v>
       </c>
       <c r="G98" t="n">
-        <v>187.2</v>
+        <v>3451201.067593537</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4196,32 +4214,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C99" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D99" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E99" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F99" t="n">
-        <v>7168.4764</v>
+        <v>1268650.29</v>
       </c>
       <c r="G99" t="n">
-        <v>187.05</v>
+        <v>3451201.067593537</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4232,32 +4254,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C100" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D100" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E100" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F100" t="n">
-        <v>75.99979999999999</v>
+        <v>996590</v>
       </c>
       <c r="G100" t="n">
-        <v>186.9</v>
+        <v>4447791.067593537</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4268,32 +4294,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C101" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D101" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E101" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F101" t="n">
-        <v>473.0714</v>
+        <v>1340000</v>
       </c>
       <c r="G101" t="n">
-        <v>186.85</v>
+        <v>4447791.067593537</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4304,32 +4334,36 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C102" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D102" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E102" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F102" t="n">
-        <v>38.1995</v>
+        <v>1340000</v>
       </c>
       <c r="G102" t="n">
-        <v>186.9</v>
+        <v>4447791.067593537</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4340,32 +4374,36 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C103" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D103" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E103" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F103" t="n">
-        <v>29</v>
+        <v>1355136.9699</v>
       </c>
       <c r="G103" t="n">
-        <v>186.95</v>
+        <v>4447791.067593537</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4376,32 +4414,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C104" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D104" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E104" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F104" t="n">
-        <v>2741.0729</v>
+        <v>608039</v>
       </c>
       <c r="G104" t="n">
-        <v>186.9</v>
+        <v>4447791.067593537</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4412,32 +4454,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C105" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D105" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E105" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F105" t="n">
-        <v>38.1995</v>
+        <v>491461</v>
       </c>
       <c r="G105" t="n">
-        <v>186.8</v>
+        <v>4447791.067593537</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4448,22 +4494,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C106" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D106" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E106" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F106" t="n">
-        <v>1550.2291</v>
+        <v>2090.9275</v>
       </c>
       <c r="G106" t="n">
-        <v>186.65</v>
+        <v>4445700.140093537</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4473,7 +4519,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4484,22 +4534,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C107" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D107" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E107" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F107" t="n">
-        <v>29</v>
+        <v>9733.852699999999</v>
       </c>
       <c r="G107" t="n">
-        <v>186.6</v>
+        <v>4455433.992793537</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4509,7 +4559,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4520,22 +4574,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C108" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D108" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E108" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F108" t="n">
-        <v>199</v>
+        <v>2080.1746</v>
       </c>
       <c r="G108" t="n">
-        <v>186.45</v>
+        <v>4453353.818193537</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4545,10 +4599,12 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
@@ -4556,28 +4612,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C109" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D109" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E109" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>721.3249</v>
       </c>
       <c r="G109" t="n">
-        <v>186.5</v>
+        <v>4453353.818193537</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4592,28 +4648,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C110" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D110" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E110" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F110" t="n">
-        <v>4000</v>
+        <v>15667.5872</v>
       </c>
       <c r="G110" t="n">
-        <v>186.4</v>
+        <v>4437686.230993537</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4628,22 +4684,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C111" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D111" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E111" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>11.68783068783069</v>
       </c>
       <c r="G111" t="n">
-        <v>186.4</v>
+        <v>4437697.918824225</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4664,28 +4720,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C112" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D112" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E112" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F112" t="n">
-        <v>1011</v>
+        <v>5000</v>
       </c>
       <c r="G112" t="n">
-        <v>186.35</v>
+        <v>4432697.918824225</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4700,28 +4756,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C113" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D113" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E113" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F113" t="n">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>186.2</v>
+        <v>4432698.918824225</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4736,28 +4792,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C114" t="n">
         <v>186</v>
       </c>
       <c r="D114" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E114" t="n">
         <v>186</v>
       </c>
       <c r="F114" t="n">
-        <v>1433.7718</v>
+        <v>5000</v>
       </c>
       <c r="G114" t="n">
-        <v>186.2</v>
+        <v>4427698.918824225</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4772,28 +4828,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C115" t="n">
         <v>187</v>
       </c>
       <c r="D115" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E115" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F115" t="n">
-        <v>2798.1215</v>
+        <v>2389</v>
       </c>
       <c r="G115" t="n">
-        <v>186.1</v>
+        <v>4430087.918824225</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4808,28 +4864,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C116" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D116" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E116" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F116" t="n">
-        <v>3169.6708</v>
+        <v>878.5445999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>186</v>
+        <v>4430087.918824225</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4844,22 +4900,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C117" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D117" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E117" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F117" t="n">
-        <v>3611.4565</v>
+        <v>874.8972</v>
       </c>
       <c r="G117" t="n">
-        <v>186</v>
+        <v>4430087.918824225</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4880,28 +4936,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C118" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D118" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E118" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>1956.0377</v>
       </c>
       <c r="G118" t="n">
-        <v>186</v>
+        <v>4428131.881124225</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4919,25 +4975,25 @@
         <v>187</v>
       </c>
       <c r="C119" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D119" t="n">
         <v>187</v>
       </c>
       <c r="E119" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F119" t="n">
-        <v>205.3129</v>
+        <v>6648.1574</v>
       </c>
       <c r="G119" t="n">
-        <v>186.05</v>
+        <v>4421483.723724225</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4952,28 +5008,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C120" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D120" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E120" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F120" t="n">
-        <v>5500</v>
+        <v>8377.289500000001</v>
       </c>
       <c r="G120" t="n">
-        <v>186.1</v>
+        <v>4429861.013224225</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4988,28 +5044,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C121" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D121" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E121" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F121" t="n">
-        <v>0.3648</v>
+        <v>1222</v>
       </c>
       <c r="G121" t="n">
-        <v>186.1</v>
+        <v>4431083.013224225</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5024,7 +5080,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C122" t="n">
         <v>188</v>
@@ -5033,19 +5089,19 @@
         <v>188</v>
       </c>
       <c r="E122" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F122" t="n">
-        <v>3574.5658</v>
+        <v>8766.021199999999</v>
       </c>
       <c r="G122" t="n">
-        <v>186.05</v>
+        <v>4422316.992024224</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5060,28 +5116,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C123" t="n">
         <v>185</v>
       </c>
       <c r="D123" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E123" t="n">
         <v>185</v>
       </c>
       <c r="F123" t="n">
-        <v>172.1412</v>
+        <v>2066.9721</v>
       </c>
       <c r="G123" t="n">
-        <v>185.9</v>
+        <v>4420250.019924224</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5096,10 +5152,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C124" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D124" t="n">
         <v>187</v>
@@ -5108,16 +5164,16 @@
         <v>185</v>
       </c>
       <c r="F124" t="n">
-        <v>12.16042780748663</v>
+        <v>2054.8815</v>
       </c>
       <c r="G124" t="n">
-        <v>185.8</v>
+        <v>4420250.019924224</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5132,28 +5188,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C125" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D125" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E125" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F125" t="n">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>185.85</v>
+        <v>4420251.019924224</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5168,28 +5224,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C126" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D126" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E126" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F126" t="n">
-        <v>9226.758900000001</v>
+        <v>60.4026</v>
       </c>
       <c r="G126" t="n">
-        <v>185.85</v>
+        <v>4420190.617324225</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5207,19 +5263,19 @@
         <v>187</v>
       </c>
       <c r="C127" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D127" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E127" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F127" t="n">
-        <v>2250.1084</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>185.9</v>
+        <v>4420192.617324225</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5252,10 +5308,10 @@
         <v>186</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>7168.4764</v>
       </c>
       <c r="G128" t="n">
-        <v>186</v>
+        <v>4413024.140924225</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5288,10 +5344,10 @@
         <v>186</v>
       </c>
       <c r="F129" t="n">
-        <v>7908.7899</v>
+        <v>75.99979999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>185.95</v>
+        <v>4413024.140924225</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5312,28 +5368,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C130" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D130" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E130" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F130" t="n">
-        <v>210.1265</v>
+        <v>473.0714</v>
       </c>
       <c r="G130" t="n">
-        <v>186</v>
+        <v>4413497.212324224</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5348,28 +5404,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C131" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D131" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E131" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F131" t="n">
-        <v>498.3689</v>
+        <v>38.1995</v>
       </c>
       <c r="G131" t="n">
-        <v>186.05</v>
+        <v>4413535.411824225</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5384,28 +5440,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C132" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D132" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E132" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F132" t="n">
-        <v>809.0795000000001</v>
+        <v>29</v>
       </c>
       <c r="G132" t="n">
-        <v>186.1</v>
+        <v>4413535.411824225</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5420,28 +5476,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C133" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D133" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E133" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F133" t="n">
-        <v>1716.0925</v>
+        <v>2741.0729</v>
       </c>
       <c r="G133" t="n">
-        <v>186.15</v>
+        <v>4410794.338924224</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5456,28 +5512,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C134" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D134" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E134" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F134" t="n">
-        <v>223</v>
+        <v>38.1995</v>
       </c>
       <c r="G134" t="n">
-        <v>186.15</v>
+        <v>4410756.139424224</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5492,28 +5548,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C135" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D135" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E135" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F135" t="n">
-        <v>650</v>
+        <v>1550.2291</v>
       </c>
       <c r="G135" t="n">
-        <v>186.2</v>
+        <v>4410756.139424224</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5528,28 +5584,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C136" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D136" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E136" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F136" t="n">
-        <v>3509.576572192514</v>
+        <v>29</v>
       </c>
       <c r="G136" t="n">
-        <v>186.25</v>
+        <v>4410785.139424224</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5564,28 +5620,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C137" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D137" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E137" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F137" t="n">
-        <v>3986.8422</v>
+        <v>199</v>
       </c>
       <c r="G137" t="n">
-        <v>186.25</v>
+        <v>4410586.139424224</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5600,28 +5656,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C138" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D138" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E138" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F138" t="n">
-        <v>11728.5798</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>186.15</v>
+        <v>4410587.139424224</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5639,25 +5695,25 @@
         <v>185</v>
       </c>
       <c r="C139" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D139" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E139" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F139" t="n">
-        <v>6358.3368</v>
+        <v>4000</v>
       </c>
       <c r="G139" t="n">
-        <v>186.05</v>
+        <v>4406587.139424224</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5672,22 +5728,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C140" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D140" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E140" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F140" t="n">
-        <v>8744.106100000001</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>185.95</v>
+        <v>4406588.139424224</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5708,22 +5764,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C141" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D141" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E141" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F141" t="n">
-        <v>5915.9998</v>
+        <v>1011</v>
       </c>
       <c r="G141" t="n">
-        <v>185.9</v>
+        <v>4405577.139424224</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5739,6 +5795,1050 @@
       </c>
       <c r="N141" t="inlineStr"/>
     </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>185</v>
+      </c>
+      <c r="C142" t="n">
+        <v>185</v>
+      </c>
+      <c r="D142" t="n">
+        <v>185</v>
+      </c>
+      <c r="E142" t="n">
+        <v>185</v>
+      </c>
+      <c r="F142" t="n">
+        <v>152</v>
+      </c>
+      <c r="G142" t="n">
+        <v>4405577.139424224</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>186</v>
+      </c>
+      <c r="C143" t="n">
+        <v>186</v>
+      </c>
+      <c r="D143" t="n">
+        <v>186</v>
+      </c>
+      <c r="E143" t="n">
+        <v>186</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1433.7718</v>
+      </c>
+      <c r="G143" t="n">
+        <v>4407010.911224225</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>185</v>
+      </c>
+      <c r="C144" t="n">
+        <v>187</v>
+      </c>
+      <c r="D144" t="n">
+        <v>187</v>
+      </c>
+      <c r="E144" t="n">
+        <v>185</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2798.1215</v>
+      </c>
+      <c r="G144" t="n">
+        <v>4409809.032724225</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>186</v>
+      </c>
+      <c r="C145" t="n">
+        <v>188</v>
+      </c>
+      <c r="D145" t="n">
+        <v>188</v>
+      </c>
+      <c r="E145" t="n">
+        <v>186</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3169.6708</v>
+      </c>
+      <c r="G145" t="n">
+        <v>4412978.703524225</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>186</v>
+      </c>
+      <c r="C146" t="n">
+        <v>185</v>
+      </c>
+      <c r="D146" t="n">
+        <v>186</v>
+      </c>
+      <c r="E146" t="n">
+        <v>185</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3611.4565</v>
+      </c>
+      <c r="G146" t="n">
+        <v>4409367.247024225</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>187</v>
+      </c>
+      <c r="C147" t="n">
+        <v>187</v>
+      </c>
+      <c r="D147" t="n">
+        <v>187</v>
+      </c>
+      <c r="E147" t="n">
+        <v>187</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>4409368.247024225</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>187</v>
+      </c>
+      <c r="C148" t="n">
+        <v>187</v>
+      </c>
+      <c r="D148" t="n">
+        <v>187</v>
+      </c>
+      <c r="E148" t="n">
+        <v>187</v>
+      </c>
+      <c r="F148" t="n">
+        <v>205.3129</v>
+      </c>
+      <c r="G148" t="n">
+        <v>4409368.247024225</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>187</v>
+      </c>
+      <c r="C149" t="n">
+        <v>187</v>
+      </c>
+      <c r="D149" t="n">
+        <v>187</v>
+      </c>
+      <c r="E149" t="n">
+        <v>187</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G149" t="n">
+        <v>4409368.247024225</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>187</v>
+      </c>
+      <c r="C150" t="n">
+        <v>187</v>
+      </c>
+      <c r="D150" t="n">
+        <v>187</v>
+      </c>
+      <c r="E150" t="n">
+        <v>187</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.3648</v>
+      </c>
+      <c r="G150" t="n">
+        <v>4409368.247024225</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>187</v>
+      </c>
+      <c r="C151" t="n">
+        <v>188</v>
+      </c>
+      <c r="D151" t="n">
+        <v>188</v>
+      </c>
+      <c r="E151" t="n">
+        <v>187</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3574.5658</v>
+      </c>
+      <c r="G151" t="n">
+        <v>4412942.812824225</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>185</v>
+      </c>
+      <c r="C152" t="n">
+        <v>185</v>
+      </c>
+      <c r="D152" t="n">
+        <v>185</v>
+      </c>
+      <c r="E152" t="n">
+        <v>185</v>
+      </c>
+      <c r="F152" t="n">
+        <v>172.1412</v>
+      </c>
+      <c r="G152" t="n">
+        <v>4412770.671624225</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>185</v>
+      </c>
+      <c r="C153" t="n">
+        <v>187</v>
+      </c>
+      <c r="D153" t="n">
+        <v>187</v>
+      </c>
+      <c r="E153" t="n">
+        <v>185</v>
+      </c>
+      <c r="F153" t="n">
+        <v>12.16042780748663</v>
+      </c>
+      <c r="G153" t="n">
+        <v>4412782.832052032</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>186</v>
+      </c>
+      <c r="C154" t="n">
+        <v>186</v>
+      </c>
+      <c r="D154" t="n">
+        <v>186</v>
+      </c>
+      <c r="E154" t="n">
+        <v>186</v>
+      </c>
+      <c r="F154" t="n">
+        <v>171</v>
+      </c>
+      <c r="G154" t="n">
+        <v>4412611.832052032</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>185</v>
+      </c>
+      <c r="C155" t="n">
+        <v>185</v>
+      </c>
+      <c r="D155" t="n">
+        <v>185</v>
+      </c>
+      <c r="E155" t="n">
+        <v>185</v>
+      </c>
+      <c r="F155" t="n">
+        <v>9226.758900000001</v>
+      </c>
+      <c r="G155" t="n">
+        <v>4403385.073152033</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>187</v>
+      </c>
+      <c r="C156" t="n">
+        <v>185</v>
+      </c>
+      <c r="D156" t="n">
+        <v>187</v>
+      </c>
+      <c r="E156" t="n">
+        <v>185</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2250.1084</v>
+      </c>
+      <c r="G156" t="n">
+        <v>4403385.073152033</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>186</v>
+      </c>
+      <c r="C157" t="n">
+        <v>186</v>
+      </c>
+      <c r="D157" t="n">
+        <v>186</v>
+      </c>
+      <c r="E157" t="n">
+        <v>186</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>4403386.073152033</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>186</v>
+      </c>
+      <c r="C158" t="n">
+        <v>186</v>
+      </c>
+      <c r="D158" t="n">
+        <v>186</v>
+      </c>
+      <c r="E158" t="n">
+        <v>186</v>
+      </c>
+      <c r="F158" t="n">
+        <v>7908.7899</v>
+      </c>
+      <c r="G158" t="n">
+        <v>4403386.073152033</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>186</v>
+      </c>
+      <c r="C159" t="n">
+        <v>186</v>
+      </c>
+      <c r="D159" t="n">
+        <v>186</v>
+      </c>
+      <c r="E159" t="n">
+        <v>186</v>
+      </c>
+      <c r="F159" t="n">
+        <v>210.1265</v>
+      </c>
+      <c r="G159" t="n">
+        <v>4403386.073152033</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>187</v>
+      </c>
+      <c r="C160" t="n">
+        <v>186</v>
+      </c>
+      <c r="D160" t="n">
+        <v>187</v>
+      </c>
+      <c r="E160" t="n">
+        <v>186</v>
+      </c>
+      <c r="F160" t="n">
+        <v>498.3689</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4403386.073152033</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>186</v>
+      </c>
+      <c r="C161" t="n">
+        <v>186</v>
+      </c>
+      <c r="D161" t="n">
+        <v>186</v>
+      </c>
+      <c r="E161" t="n">
+        <v>186</v>
+      </c>
+      <c r="F161" t="n">
+        <v>809.0795000000001</v>
+      </c>
+      <c r="G161" t="n">
+        <v>4403386.073152033</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>186</v>
+      </c>
+      <c r="C162" t="n">
+        <v>186</v>
+      </c>
+      <c r="D162" t="n">
+        <v>186</v>
+      </c>
+      <c r="E162" t="n">
+        <v>186</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1716.0925</v>
+      </c>
+      <c r="G162" t="n">
+        <v>4403386.073152033</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>186</v>
+      </c>
+      <c r="C163" t="n">
+        <v>186</v>
+      </c>
+      <c r="D163" t="n">
+        <v>186</v>
+      </c>
+      <c r="E163" t="n">
+        <v>186</v>
+      </c>
+      <c r="F163" t="n">
+        <v>223</v>
+      </c>
+      <c r="G163" t="n">
+        <v>4403386.073152033</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>186</v>
+      </c>
+      <c r="C164" t="n">
+        <v>186</v>
+      </c>
+      <c r="D164" t="n">
+        <v>186</v>
+      </c>
+      <c r="E164" t="n">
+        <v>186</v>
+      </c>
+      <c r="F164" t="n">
+        <v>650</v>
+      </c>
+      <c r="G164" t="n">
+        <v>4403386.073152033</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>187</v>
+      </c>
+      <c r="C165" t="n">
+        <v>187</v>
+      </c>
+      <c r="D165" t="n">
+        <v>187</v>
+      </c>
+      <c r="E165" t="n">
+        <v>187</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3509.576572192514</v>
+      </c>
+      <c r="G165" t="n">
+        <v>4406895.649724226</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>186</v>
+      </c>
+      <c r="C166" t="n">
+        <v>186</v>
+      </c>
+      <c r="D166" t="n">
+        <v>186</v>
+      </c>
+      <c r="E166" t="n">
+        <v>186</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3986.8422</v>
+      </c>
+      <c r="G166" t="n">
+        <v>4402908.807524226</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>185</v>
+      </c>
+      <c r="C167" t="n">
+        <v>185</v>
+      </c>
+      <c r="D167" t="n">
+        <v>185</v>
+      </c>
+      <c r="E167" t="n">
+        <v>185</v>
+      </c>
+      <c r="F167" t="n">
+        <v>11728.5798</v>
+      </c>
+      <c r="G167" t="n">
+        <v>4391180.227724225</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>185</v>
+      </c>
+      <c r="C168" t="n">
+        <v>187</v>
+      </c>
+      <c r="D168" t="n">
+        <v>187</v>
+      </c>
+      <c r="E168" t="n">
+        <v>185</v>
+      </c>
+      <c r="F168" t="n">
+        <v>6358.3368</v>
+      </c>
+      <c r="G168" t="n">
+        <v>4397538.564524225</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>185</v>
+      </c>
+      <c r="C169" t="n">
+        <v>185</v>
+      </c>
+      <c r="D169" t="n">
+        <v>185</v>
+      </c>
+      <c r="E169" t="n">
+        <v>185</v>
+      </c>
+      <c r="F169" t="n">
+        <v>8744.106100000001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>4388794.458424225</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>186</v>
+      </c>
+      <c r="C170" t="n">
+        <v>184</v>
+      </c>
+      <c r="D170" t="n">
+        <v>188</v>
+      </c>
+      <c r="E170" t="n">
+        <v>184</v>
+      </c>
+      <c r="F170" t="n">
+        <v>5915.9998</v>
+      </c>
+      <c r="G170" t="n">
+        <v>4382878.458624224</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-30 BackTest RDN.xlsx
+++ b/BackTest/2019-10-30 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N170"/>
+  <dimension ref="A1:M170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-24965.4694</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>-26935.9773</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="J3" t="n">
+        <v>188</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +521,23 @@
         <v>-26935.9773</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="J4" t="n">
+        <v>188</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +562,23 @@
         <v>-26935.9773</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="J5" t="n">
+        <v>188</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +603,19 @@
         <v>-26934.9773</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="J6" t="n">
+        <v>186</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +642,19 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>186</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +681,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>186</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +720,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +753,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +786,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +819,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +852,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +885,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +918,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +951,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +984,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1017,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1050,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1083,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1116,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1149,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1182,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1215,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1248,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1281,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1312,19 @@
         <v>-26764.9719</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="J27" t="n">
+        <v>185</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,22 +1349,21 @@
         <v>-26164.9719</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>184</v>
-      </c>
-      <c r="K28" t="n">
-        <v>184</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1432,26 +1388,23 @@
         <v>-23673.2032</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="J29" t="n">
         <v>185</v>
       </c>
-      <c r="K29" t="n">
-        <v>184</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1476,60 +1429,60 @@
         <v>-23673.2032</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>184</v>
-      </c>
-      <c r="L30" t="inlineStr">
+        <v>186</v>
+      </c>
+      <c r="J30" t="n">
+        <v>186</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>187</v>
+      </c>
+      <c r="C31" t="n">
+        <v>187</v>
+      </c>
+      <c r="D31" t="n">
+        <v>187</v>
+      </c>
+      <c r="E31" t="n">
+        <v>187</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-23672.2032</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>186</v>
+      </c>
+      <c r="J31" t="n">
+        <v>186</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>187</v>
-      </c>
-      <c r="C31" t="n">
-        <v>187</v>
-      </c>
-      <c r="D31" t="n">
-        <v>187</v>
-      </c>
-      <c r="E31" t="n">
-        <v>187</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-23672.2032</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1556,16 +1509,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>186</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1592,16 +1548,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1626,18 +1579,19 @@
         <v>-26005.4384</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="J34" t="n">
+        <v>186</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1662,18 +1616,23 @@
         <v>-26005.4384</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J35" t="n">
+        <v>186</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1700,16 +1659,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>186</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1734,24 +1696,23 @@
         <v>-27238.2434</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J37" t="n">
-        <v>184</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+        <v>186</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1776,24 +1737,23 @@
         <v>-27238.2434</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="J38" t="n">
-        <v>183</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+        <v>186</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1818,24 +1778,23 @@
         <v>-27198.2434</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="J39" t="n">
-        <v>183</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+        <v>186</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1860,24 +1819,23 @@
         <v>-33846.3214</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J40" t="n">
-        <v>184</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+        <v>186</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1902,24 +1860,23 @@
         <v>-33816.7858</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="J41" t="n">
-        <v>183</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+        <v>186</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1944,24 +1901,23 @@
         <v>-34642.8718</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J42" t="n">
-        <v>184</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+        <v>186</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1986,24 +1942,21 @@
         <v>-33822.0891</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>183</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+        <v>186</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2028,24 +1981,23 @@
         <v>-32633.9889</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J44" t="n">
-        <v>184</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+        <v>186</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2070,24 +2022,21 @@
         <v>1947.727538095241</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>187</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+        <v>186</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2114,20 +2063,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>186</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2154,20 +2102,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>186</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2192,22 +2139,21 @@
         <v>9363.46533809524</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>186</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1.032634408602151</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2234,20 +2180,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2272,22 +2211,15 @@
         <v>9304.163538095241</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2314,20 +2246,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2354,20 +2279,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2394,20 +2312,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2434,20 +2345,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2474,20 +2378,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2512,22 +2409,15 @@
         <v>10673.84959353751</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2554,20 +2444,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2594,20 +2477,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2634,20 +2510,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2674,20 +2543,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2714,20 +2576,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2754,20 +2609,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2794,20 +2642,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2834,20 +2675,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2874,20 +2708,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2914,20 +2741,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2954,20 +2774,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2994,20 +2807,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3034,20 +2840,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3074,20 +2873,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3114,20 +2906,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3154,20 +2939,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3194,20 +2972,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3234,20 +3005,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3274,20 +3038,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3314,20 +3071,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3354,20 +3104,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3394,20 +3137,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3434,20 +3170,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3474,20 +3203,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3514,20 +3236,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3554,20 +3269,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3594,20 +3302,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3634,20 +3335,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3674,20 +3368,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3714,20 +3401,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3754,20 +3434,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3794,20 +3467,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3834,20 +3500,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3874,20 +3533,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3914,20 +3566,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3954,20 +3599,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3994,20 +3632,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4034,20 +3665,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4074,20 +3698,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4114,20 +3731,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4154,20 +3764,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4194,20 +3797,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4234,20 +3830,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4274,20 +3863,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4314,20 +3896,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4354,20 +3929,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4394,20 +3962,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4434,20 +3995,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4474,20 +4028,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4512,22 +4059,15 @@
         <v>4445700.140093537</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4552,22 +4092,15 @@
         <v>4455433.992793537</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4592,20 +4125,15 @@
         <v>4453353.818193537</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L108" t="n">
+        <v>1</v>
       </c>
       <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4630,18 +4158,15 @@
         <v>4453353.818193537</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4666,18 +4191,15 @@
         <v>4437686.230993537</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4702,18 +4224,15 @@
         <v>4437697.918824225</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4738,18 +4257,15 @@
         <v>4432697.918824225</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4776,16 +4292,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4810,18 +4323,15 @@
         <v>4427698.918824225</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4848,16 +4358,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4884,16 +4391,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4918,18 +4422,15 @@
         <v>4430087.918824225</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4956,16 +4457,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4992,16 +4490,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5028,16 +4523,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5064,16 +4556,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5100,16 +4589,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5136,16 +4622,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5172,16 +4655,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5208,16 +4688,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5244,16 +4721,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5278,18 +4752,15 @@
         <v>4420192.617324225</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5314,18 +4785,15 @@
         <v>4413024.140924225</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5350,18 +4818,15 @@
         <v>4413024.140924225</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5388,16 +4853,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5424,16 +4886,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5460,16 +4919,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5496,16 +4952,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5532,16 +4985,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5568,16 +5018,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5604,16 +5051,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5640,16 +5084,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5674,18 +5115,15 @@
         <v>4410587.139424224</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5710,18 +5148,15 @@
         <v>4406587.139424224</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5746,18 +5181,15 @@
         <v>4406588.139424224</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5782,18 +5214,15 @@
         <v>4405577.139424224</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5818,18 +5247,15 @@
         <v>4405577.139424224</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5854,18 +5280,15 @@
         <v>4407010.911224225</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5890,18 +5313,15 @@
         <v>4409809.032724225</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5926,18 +5346,15 @@
         <v>4412978.703524225</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5964,16 +5381,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5998,18 +5412,15 @@
         <v>4409368.247024225</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6034,18 +5445,15 @@
         <v>4409368.247024225</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6072,16 +5480,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6106,18 +5511,15 @@
         <v>4409368.247024225</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6142,18 +5544,15 @@
         <v>4412942.812824225</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6178,18 +5577,15 @@
         <v>4412770.671624225</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6214,18 +5610,15 @@
         <v>4412782.832052032</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6250,18 +5643,15 @@
         <v>4412611.832052032</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6286,18 +5676,15 @@
         <v>4403385.073152033</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6322,18 +5709,15 @@
         <v>4403385.073152033</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6358,18 +5742,15 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6394,18 +5775,15 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6430,18 +5808,15 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6466,18 +5841,15 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6502,18 +5874,15 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6538,18 +5907,15 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6574,18 +5940,15 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6610,18 +5973,15 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6646,18 +6006,15 @@
         <v>4406895.649724226</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6682,18 +6039,15 @@
         <v>4402908.807524226</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6718,18 +6072,15 @@
         <v>4391180.227724225</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6754,18 +6105,15 @@
         <v>4397538.564524225</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6790,18 +6138,15 @@
         <v>4388794.458424225</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6826,20 +6171,17 @@
         <v>4382878.458624224</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest RDN.xlsx
+++ b/BackTest/2019-10-30 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-24965.4694</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-26935.9773</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>188</v>
-      </c>
-      <c r="J3" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-26935.9773</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>186</v>
-      </c>
-      <c r="J4" t="n">
-        <v>188</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-26935.9773</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>186</v>
-      </c>
-      <c r="J5" t="n">
-        <v>188</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-26934.9773</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>186</v>
-      </c>
-      <c r="J6" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -643,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>186</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -682,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>186</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -1312,14 +1276,10 @@
         <v>-26764.9719</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>185</v>
-      </c>
-      <c r="J27" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1352,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>185</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1388,7 +1342,7 @@
         <v>-23673.2032</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>185</v>
@@ -1396,11 +1350,7 @@
       <c r="J29" t="n">
         <v>185</v>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1429,15 +1379,17 @@
         <v>-23673.2032</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>186</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1466,13 +1418,11 @@
         <v>-23672.2032</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1510,14 +1460,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>186</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1579,14 +1523,10 @@
         <v>-26005.4384</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>186</v>
-      </c>
-      <c r="J34" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1616,19 +1556,11 @@
         <v>-26005.4384</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>184</v>
-      </c>
-      <c r="J35" t="n">
-        <v>186</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1660,14 +1592,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>186</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1696,19 +1622,11 @@
         <v>-27238.2434</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>184</v>
-      </c>
-      <c r="J37" t="n">
-        <v>186</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1737,17 +1655,15 @@
         <v>-27238.2434</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>183</v>
       </c>
-      <c r="J38" t="n">
-        <v>186</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1778,14 +1694,12 @@
         <v>-27198.2434</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>183</v>
       </c>
-      <c r="J39" t="n">
-        <v>186</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1819,14 +1733,12 @@
         <v>-33846.3214</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>184</v>
       </c>
-      <c r="J40" t="n">
-        <v>186</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1860,14 +1772,12 @@
         <v>-33816.7858</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>183</v>
       </c>
-      <c r="J41" t="n">
-        <v>186</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1901,14 +1811,12 @@
         <v>-34642.8718</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>184</v>
       </c>
-      <c r="J42" t="n">
-        <v>186</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1942,12 +1850,12 @@
         <v>-33822.0891</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>186</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>183</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1981,14 +1889,12 @@
         <v>-32633.9889</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>184</v>
       </c>
-      <c r="J44" t="n">
-        <v>186</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2022,12 +1928,12 @@
         <v>1947.727538095241</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>186</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>187</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2064,9 +1970,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>186</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2103,9 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>186</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2139,19 +2041,17 @@
         <v>9363.46533809524</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>186</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.032634408602151</v>
+        <v>1</v>
       </c>
       <c r="M48" t="inlineStr"/>
     </row>
@@ -2182,7 +2082,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2211,11 +2115,15 @@
         <v>9304.163538095241</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2248,7 +2156,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2281,7 +2193,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2310,11 +2226,17 @@
         <v>8801.807404063828</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>187</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2343,11 +2265,17 @@
         <v>8812.336604063828</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>187</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2380,7 +2308,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2409,11 +2341,15 @@
         <v>10673.84959353751</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2446,7 +2382,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2479,7 +2419,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2512,7 +2456,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2541,11 +2489,17 @@
         <v>9644.346493537512</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>187</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2574,11 +2528,17 @@
         <v>9951.009593537512</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>186</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2607,11 +2567,17 @@
         <v>9597.362593537511</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>187</v>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2640,11 +2606,17 @@
         <v>9597.362593537511</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>186</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2673,11 +2645,17 @@
         <v>1033997.362593538</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>186</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2710,7 +2688,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2743,7 +2725,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2776,7 +2762,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2809,7 +2799,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2842,7 +2836,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2875,7 +2873,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2908,7 +2910,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2941,7 +2947,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2974,7 +2984,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3007,7 +3021,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3040,7 +3058,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3073,7 +3095,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3106,7 +3132,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3139,7 +3169,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3172,7 +3206,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3205,7 +3243,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3238,7 +3280,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3271,7 +3317,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3304,7 +3354,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3337,7 +3391,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3370,7 +3428,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3403,7 +3465,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3436,7 +3502,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3469,7 +3539,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3502,7 +3576,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3535,7 +3613,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3568,7 +3650,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3601,7 +3687,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3634,7 +3724,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3667,7 +3761,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3700,7 +3798,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3733,7 +3835,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3766,7 +3872,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3799,7 +3909,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3832,7 +3946,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3865,7 +3983,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3898,7 +4020,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3931,7 +4057,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3964,7 +4094,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3997,7 +4131,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4030,7 +4168,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4059,11 +4201,15 @@
         <v>4445700.140093537</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4092,11 +4238,15 @@
         <v>4455433.992793537</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4125,11 +4275,15 @@
         <v>4453353.818193537</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4158,14 +4312,16 @@
         <v>4453353.818193537</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -4191,7 +4347,7 @@
         <v>4437686.230993537</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4224,7 +4380,7 @@
         <v>4437697.918824225</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4257,7 +4413,7 @@
         <v>4432697.918824225</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4290,7 +4446,7 @@
         <v>4432698.918824225</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4323,7 +4479,7 @@
         <v>4427698.918824225</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4356,7 +4512,7 @@
         <v>4430087.918824225</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4389,7 +4545,7 @@
         <v>4430087.918824225</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4422,7 +4578,7 @@
         <v>4430087.918824225</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4455,7 +4611,7 @@
         <v>4428131.881124225</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4488,7 +4644,7 @@
         <v>4421483.723724225</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4521,7 +4677,7 @@
         <v>4429861.013224225</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4554,7 +4710,7 @@
         <v>4431083.013224225</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4587,7 +4743,7 @@
         <v>4422316.992024224</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4620,7 +4776,7 @@
         <v>4420250.019924224</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4653,7 +4809,7 @@
         <v>4420250.019924224</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4686,7 +4842,7 @@
         <v>4420251.019924224</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4719,7 +4875,7 @@
         <v>4420190.617324225</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4752,7 +4908,7 @@
         <v>4420192.617324225</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4785,7 +4941,7 @@
         <v>4413024.140924225</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4818,7 +4974,7 @@
         <v>4413024.140924225</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4851,7 +5007,7 @@
         <v>4413497.212324224</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4884,7 +5040,7 @@
         <v>4413535.411824225</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4917,7 +5073,7 @@
         <v>4413535.411824225</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4950,7 +5106,7 @@
         <v>4410794.338924224</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4983,7 +5139,7 @@
         <v>4410756.139424224</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5016,7 +5172,7 @@
         <v>4410756.139424224</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5049,7 +5205,7 @@
         <v>4410785.139424224</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5082,7 +5238,7 @@
         <v>4410586.139424224</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5115,7 +5271,7 @@
         <v>4410587.139424224</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5148,7 +5304,7 @@
         <v>4406587.139424224</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5181,7 +5337,7 @@
         <v>4406588.139424224</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5214,7 +5370,7 @@
         <v>4405577.139424224</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5247,7 +5403,7 @@
         <v>4405577.139424224</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5280,7 +5436,7 @@
         <v>4407010.911224225</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5313,7 +5469,7 @@
         <v>4409809.032724225</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5346,7 +5502,7 @@
         <v>4412978.703524225</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5379,7 +5535,7 @@
         <v>4409367.247024225</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5412,7 +5568,7 @@
         <v>4409368.247024225</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5445,7 +5601,7 @@
         <v>4409368.247024225</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5478,7 +5634,7 @@
         <v>4409368.247024225</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5511,7 +5667,7 @@
         <v>4409368.247024225</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5544,7 +5700,7 @@
         <v>4412942.812824225</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5577,7 +5733,7 @@
         <v>4412770.671624225</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5610,7 +5766,7 @@
         <v>4412782.832052032</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5643,7 +5799,7 @@
         <v>4412611.832052032</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5676,7 +5832,7 @@
         <v>4403385.073152033</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5709,7 +5865,7 @@
         <v>4403385.073152033</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5742,7 +5898,7 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5775,7 +5931,7 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5808,7 +5964,7 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5841,7 +5997,7 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5874,7 +6030,7 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5907,7 +6063,7 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5940,7 +6096,7 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5973,7 +6129,7 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6006,7 +6162,7 @@
         <v>4406895.649724226</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6039,7 +6195,7 @@
         <v>4402908.807524226</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6072,7 +6228,7 @@
         <v>4391180.227724225</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6105,7 +6261,7 @@
         <v>4397538.564524225</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6138,7 +6294,7 @@
         <v>4388794.458424225</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6171,7 +6327,7 @@
         <v>4382878.458624224</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6182,6 +6338,6 @@
       <c r="M170" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest RDN.xlsx
+++ b/BackTest/2019-10-30 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1342,14 +1342,10 @@
         <v>-23673.2032</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>185</v>
-      </c>
-      <c r="J29" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1382,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>185</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1421,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>185</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1655,17 +1639,11 @@
         <v>-27238.2434</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1694,17 +1672,11 @@
         <v>-27198.2434</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1733,17 +1705,11 @@
         <v>-33846.3214</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1777,12 +1743,10 @@
       <c r="I41" t="n">
         <v>183</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="n">
+        <v>183</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1816,10 +1780,12 @@
       <c r="I42" t="n">
         <v>184</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>183</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1855,10 +1821,12 @@
       <c r="I43" t="n">
         <v>183</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>183</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -1889,17 +1857,11 @@
         <v>-32633.9889</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1928,17 +1890,11 @@
         <v>1947.727538095241</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1971,11 +1927,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2008,11 +1960,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2045,11 +1993,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2082,11 +2026,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2119,11 +2059,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2156,11 +2092,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2193,11 +2125,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2226,17 +2154,11 @@
         <v>8801.807404063828</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2265,17 +2187,11 @@
         <v>8812.336604063828</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2308,11 +2224,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2345,11 +2257,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2382,11 +2290,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2419,11 +2323,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2456,11 +2356,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2489,17 +2385,11 @@
         <v>9644.346493537512</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2528,17 +2418,11 @@
         <v>9951.009593537512</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2567,17 +2451,11 @@
         <v>9597.362593537511</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2606,17 +2484,11 @@
         <v>9597.362593537511</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2645,17 +2517,11 @@
         <v>1033997.362593538</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2688,11 +2554,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2725,11 +2587,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2762,11 +2620,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2799,11 +2653,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2836,11 +2686,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2873,11 +2719,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2910,11 +2752,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2947,11 +2785,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2984,11 +2818,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3021,11 +2851,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +2884,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3095,11 +2917,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3128,15 +2946,11 @@
         <v>3470518.406293537</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3165,15 +2979,11 @@
         <v>3470518.406293537</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3202,15 +3012,11 @@
         <v>3469718.406293537</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3243,11 +3049,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3280,11 +3082,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3317,11 +3115,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3354,11 +3148,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3391,11 +3181,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3428,11 +3214,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3465,11 +3247,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3502,11 +3280,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3539,11 +3313,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3576,11 +3346,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3613,11 +3379,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3650,11 +3412,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3687,11 +3445,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3724,11 +3478,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3761,11 +3511,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3798,11 +3544,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3835,11 +3577,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3872,11 +3610,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3909,11 +3643,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3946,11 +3676,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3983,11 +3709,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4020,11 +3742,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4057,11 +3775,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4094,11 +3808,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4131,11 +3841,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4168,11 +3874,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4205,11 +3907,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4242,11 +3940,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +3973,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4312,16 +4002,14 @@
         <v>4453353.818193537</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
       <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -4347,7 +4035,7 @@
         <v>4437686.230993537</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4380,7 +4068,7 @@
         <v>4437697.918824225</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4413,7 +4101,7 @@
         <v>4432697.918824225</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4446,7 +4134,7 @@
         <v>4432698.918824225</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4479,7 +4167,7 @@
         <v>4427698.918824225</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4512,7 +4200,7 @@
         <v>4430087.918824225</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4545,7 +4233,7 @@
         <v>4430087.918824225</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4578,7 +4266,7 @@
         <v>4430087.918824225</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4611,7 +4299,7 @@
         <v>4428131.881124225</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4644,7 +4332,7 @@
         <v>4421483.723724225</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4677,7 +4365,7 @@
         <v>4429861.013224225</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4710,7 +4398,7 @@
         <v>4431083.013224225</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4743,7 +4431,7 @@
         <v>4422316.992024224</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4776,7 +4464,7 @@
         <v>4420250.019924224</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4809,7 +4497,7 @@
         <v>4420250.019924224</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4842,7 +4530,7 @@
         <v>4420251.019924224</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4875,7 +4563,7 @@
         <v>4420190.617324225</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4908,7 +4596,7 @@
         <v>4420192.617324225</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4941,7 +4629,7 @@
         <v>4413024.140924225</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4974,7 +4662,7 @@
         <v>4413024.140924225</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5007,7 +4695,7 @@
         <v>4413497.212324224</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5040,7 +4728,7 @@
         <v>4413535.411824225</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5073,7 +4761,7 @@
         <v>4413535.411824225</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5106,7 +4794,7 @@
         <v>4410794.338924224</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5139,7 +4827,7 @@
         <v>4410756.139424224</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5172,7 +4860,7 @@
         <v>4410756.139424224</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5205,7 +4893,7 @@
         <v>4410785.139424224</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5238,7 +4926,7 @@
         <v>4410586.139424224</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5271,7 +4959,7 @@
         <v>4410587.139424224</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5304,7 +4992,7 @@
         <v>4406587.139424224</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5337,7 +5025,7 @@
         <v>4406588.139424224</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5370,7 +5058,7 @@
         <v>4405577.139424224</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5403,7 +5091,7 @@
         <v>4405577.139424224</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5436,7 +5124,7 @@
         <v>4407010.911224225</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5469,7 +5157,7 @@
         <v>4409809.032724225</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5502,7 +5190,7 @@
         <v>4412978.703524225</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5535,7 +5223,7 @@
         <v>4409367.247024225</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5568,7 +5256,7 @@
         <v>4409368.247024225</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5601,7 +5289,7 @@
         <v>4409368.247024225</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5634,7 +5322,7 @@
         <v>4409368.247024225</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5667,7 +5355,7 @@
         <v>4409368.247024225</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5700,7 +5388,7 @@
         <v>4412942.812824225</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5733,7 +5421,7 @@
         <v>4412770.671624225</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5766,7 +5454,7 @@
         <v>4412782.832052032</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5799,7 +5487,7 @@
         <v>4412611.832052032</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5865,7 +5553,7 @@
         <v>4403385.073152033</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5898,7 +5586,7 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5997,7 +5685,7 @@
         <v>4403386.073152033</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6162,7 +5850,7 @@
         <v>4406895.649724226</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6228,7 +5916,7 @@
         <v>4391180.227724225</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6261,7 +5949,7 @@
         <v>4397538.564524225</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6294,7 +5982,7 @@
         <v>4388794.458424225</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6327,7 +6015,7 @@
         <v>4382878.458624224</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6338,6 +6026,6 @@
       <c r="M170" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest RDN.xlsx
+++ b/BackTest/2019-10-30 BackTest RDN.xlsx
@@ -451,7 +451,7 @@
         <v>-24965.4694</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1639,11 +1639,17 @@
         <v>-27238.2434</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>183</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1678,17 @@
         <v>-27198.2434</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>183</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1717,17 @@
         <v>-33846.3214</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>184</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1743,10 +1761,12 @@
       <c r="I41" t="n">
         <v>183</v>
       </c>
-      <c r="J41" t="n">
-        <v>183</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1780,12 +1800,10 @@
       <c r="I42" t="n">
         <v>184</v>
       </c>
-      <c r="J42" t="n">
-        <v>183</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1821,12 +1839,10 @@
       <c r="I43" t="n">
         <v>183</v>
       </c>
-      <c r="J43" t="n">
-        <v>183</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -1857,11 +1873,17 @@
         <v>-32633.9889</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>184</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1894,7 +1916,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1927,7 +1953,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1960,7 +1990,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1993,7 +2027,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2026,7 +2064,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2059,7 +2101,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2092,7 +2138,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2125,7 +2175,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2158,7 +2212,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2191,7 +2249,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2224,7 +2286,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2257,7 +2323,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2290,7 +2360,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2323,7 +2397,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2356,7 +2434,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2389,7 +2471,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2422,7 +2508,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2455,7 +2545,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2488,7 +2582,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2521,7 +2619,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2554,7 +2656,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2587,7 +2693,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2620,7 +2730,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2653,7 +2767,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2686,7 +2804,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2719,7 +2841,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2752,7 +2878,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2785,7 +2915,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2818,7 +2952,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2851,7 +2989,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2884,7 +3026,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2917,7 +3063,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2946,11 +3096,15 @@
         <v>3470518.406293537</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2979,11 +3133,15 @@
         <v>3470518.406293537</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3012,11 +3170,15 @@
         <v>3469718.406293537</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3049,7 +3211,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3082,7 +3248,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3115,7 +3285,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3148,7 +3322,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3181,7 +3359,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3214,7 +3396,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3247,7 +3433,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3280,7 +3470,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3313,7 +3507,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3346,7 +3544,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3379,7 +3581,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3412,7 +3618,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3445,7 +3655,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3478,7 +3692,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3511,7 +3729,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3544,7 +3766,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3577,7 +3803,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3610,7 +3840,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3643,7 +3877,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3676,7 +3914,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3709,7 +3951,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3742,7 +3988,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3775,7 +4025,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3804,14 +4058,16 @@
         <v>4447791.067593537</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
@@ -3969,7 +4225,7 @@
         <v>4453353.818193537</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4002,7 +4258,7 @@
         <v>4453353.818193537</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4035,7 +4291,7 @@
         <v>4437686.230993537</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4068,7 +4324,7 @@
         <v>4437697.918824225</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4101,7 +4357,7 @@
         <v>4432697.918824225</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4266,7 +4522,7 @@
         <v>4430087.918824225</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4431,7 +4687,7 @@
         <v>4422316.992024224</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4464,7 +4720,7 @@
         <v>4420250.019924224</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4563,7 +4819,7 @@
         <v>4420190.617324225</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4596,7 +4852,7 @@
         <v>4420192.617324225</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>

--- a/BackTest/2019-10-30 BackTest RDN.xlsx
+++ b/BackTest/2019-10-30 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M170"/>
+  <dimension ref="A1:L170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>-24965.4694</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1970.5079</v>
       </c>
       <c r="G3" t="n">
-        <v>-26935.9773</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>3186.4199</v>
       </c>
       <c r="G4" t="n">
-        <v>-26935.9773</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>5023</v>
       </c>
       <c r="G5" t="n">
-        <v>-26935.9773</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-26934.9773</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>436.7349</v>
       </c>
       <c r="G7" t="n">
-        <v>-27371.7122</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>550</v>
       </c>
       <c r="G8" t="n">
-        <v>-27371.7122</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>179.9999</v>
       </c>
       <c r="G9" t="n">
-        <v>-27371.7122</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>-27370.7122</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>-27369.7122</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>-27371.7122</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>946</v>
       </c>
       <c r="G13" t="n">
-        <v>-27371.7122</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>5299.853</v>
       </c>
       <c r="G14" t="n">
-        <v>-22071.8592</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>19.365</v>
       </c>
       <c r="G15" t="n">
-        <v>-22071.8592</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>852.4494</v>
       </c>
       <c r="G16" t="n">
-        <v>-22071.8592</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>785</v>
       </c>
       <c r="G17" t="n">
-        <v>-22856.8592</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>577.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>-22856.8592</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>5939.8563</v>
       </c>
       <c r="G19" t="n">
-        <v>-22856.8592</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>32.6884</v>
       </c>
       <c r="G20" t="n">
-        <v>-22889.5476</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>11228.6149</v>
       </c>
       <c r="G21" t="n">
-        <v>-11660.9327</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2013.7672</v>
       </c>
       <c r="G22" t="n">
-        <v>-11660.9327</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>459.3262</v>
       </c>
       <c r="G23" t="n">
-        <v>-11660.9327</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>9305.2299</v>
       </c>
       <c r="G24" t="n">
-        <v>-20966.1626</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>5762.6359</v>
       </c>
       <c r="G25" t="n">
-        <v>-26728.7985</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>-26727.7985</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>37.1734</v>
       </c>
       <c r="G27" t="n">
-        <v>-26764.9719</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>600</v>
       </c>
       <c r="G28" t="n">
-        <v>-26164.9719</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2491.7687</v>
       </c>
       <c r="G29" t="n">
-        <v>-23673.2032</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>3181.5915</v>
       </c>
       <c r="G30" t="n">
-        <v>-23673.2032</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>-23672.2032</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1998.2352</v>
       </c>
       <c r="G32" t="n">
-        <v>-25670.4384</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>827.9946</v>
       </c>
       <c r="G33" t="n">
-        <v>-25670.4384</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>335</v>
       </c>
       <c r="G34" t="n">
-        <v>-26005.4384</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>200</v>
       </c>
       <c r="G35" t="n">
-        <v>-26005.4384</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>66.71129999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>-26005.4384</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1232.805</v>
       </c>
       <c r="G37" t="n">
-        <v>-27238.2434</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,628 +1523,541 @@
         <v>1026.086</v>
       </c>
       <c r="G38" t="n">
-        <v>-27238.2434</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>184</v>
+      </c>
+      <c r="C39" t="n">
+        <v>184</v>
+      </c>
+      <c r="D39" t="n">
+        <v>184</v>
+      </c>
+      <c r="E39" t="n">
+        <v>184</v>
+      </c>
+      <c r="F39" t="n">
+        <v>40</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>184</v>
+      </c>
+      <c r="C40" t="n">
         <v>183</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
+      <c r="D40" t="n">
+        <v>184</v>
+      </c>
+      <c r="E40" t="n">
+        <v>183</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6648.078</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>184</v>
+      </c>
+      <c r="C41" t="n">
+        <v>184</v>
+      </c>
+      <c r="D41" t="n">
+        <v>184</v>
+      </c>
+      <c r="E41" t="n">
+        <v>184</v>
+      </c>
+      <c r="F41" t="n">
+        <v>29.5356</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>183</v>
+      </c>
+      <c r="C42" t="n">
+        <v>183</v>
+      </c>
+      <c r="D42" t="n">
+        <v>183</v>
+      </c>
+      <c r="E42" t="n">
+        <v>183</v>
+      </c>
+      <c r="F42" t="n">
+        <v>826.086</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>184</v>
+      </c>
+      <c r="C43" t="n">
+        <v>184</v>
+      </c>
+      <c r="D43" t="n">
+        <v>184</v>
+      </c>
+      <c r="E43" t="n">
+        <v>184</v>
+      </c>
+      <c r="F43" t="n">
+        <v>820.7827</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>186</v>
+      </c>
+      <c r="C44" t="n">
+        <v>187</v>
+      </c>
+      <c r="D44" t="n">
+        <v>187</v>
+      </c>
+      <c r="E44" t="n">
+        <v>184</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1188.1002</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>184</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>184</v>
-      </c>
-      <c r="C39" t="n">
-        <v>184</v>
-      </c>
-      <c r="D39" t="n">
-        <v>184</v>
-      </c>
-      <c r="E39" t="n">
-        <v>184</v>
-      </c>
-      <c r="F39" t="n">
-        <v>40</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-27198.2434</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>183</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>188</v>
+      </c>
+      <c r="C45" t="n">
+        <v>193</v>
+      </c>
+      <c r="D45" t="n">
+        <v>193</v>
+      </c>
+      <c r="E45" t="n">
+        <v>188</v>
+      </c>
+      <c r="F45" t="n">
+        <v>34581.71643809524</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>184</v>
-      </c>
-      <c r="C40" t="n">
-        <v>183</v>
-      </c>
-      <c r="D40" t="n">
-        <v>184</v>
-      </c>
-      <c r="E40" t="n">
-        <v>183</v>
-      </c>
-      <c r="F40" t="n">
-        <v>6648.078</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-33846.3214</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>184</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>193</v>
+      </c>
+      <c r="C46" t="n">
+        <v>193</v>
+      </c>
+      <c r="D46" t="n">
+        <v>194</v>
+      </c>
+      <c r="E46" t="n">
+        <v>192</v>
+      </c>
+      <c r="F46" t="n">
+        <v>16758</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>184</v>
-      </c>
-      <c r="C41" t="n">
-        <v>184</v>
-      </c>
-      <c r="D41" t="n">
-        <v>184</v>
-      </c>
-      <c r="E41" t="n">
-        <v>184</v>
-      </c>
-      <c r="F41" t="n">
-        <v>29.5356</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-33816.7858</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>183</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>190</v>
+      </c>
+      <c r="C47" t="n">
+        <v>192</v>
+      </c>
+      <c r="D47" t="n">
+        <v>192</v>
+      </c>
+      <c r="E47" t="n">
+        <v>189</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2216.6095</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>183</v>
-      </c>
-      <c r="C42" t="n">
-        <v>183</v>
-      </c>
-      <c r="D42" t="n">
-        <v>183</v>
-      </c>
-      <c r="E42" t="n">
-        <v>183</v>
-      </c>
-      <c r="F42" t="n">
-        <v>826.086</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-34642.8718</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>184</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>192</v>
+      </c>
+      <c r="C48" t="n">
+        <v>193</v>
+      </c>
+      <c r="D48" t="n">
+        <v>193</v>
+      </c>
+      <c r="E48" t="n">
+        <v>192</v>
+      </c>
+      <c r="F48" t="n">
+        <v>9632.347299999999</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>184</v>
-      </c>
-      <c r="C43" t="n">
-        <v>184</v>
-      </c>
-      <c r="D43" t="n">
-        <v>184</v>
-      </c>
-      <c r="E43" t="n">
-        <v>184</v>
-      </c>
-      <c r="F43" t="n">
-        <v>820.7827</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-33822.0891</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>183</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>188</v>
+      </c>
+      <c r="C49" t="n">
+        <v>188</v>
+      </c>
+      <c r="D49" t="n">
+        <v>188</v>
+      </c>
+      <c r="E49" t="n">
+        <v>188</v>
+      </c>
+      <c r="F49" t="n">
+        <v>65.3018</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>186</v>
-      </c>
-      <c r="C44" t="n">
-        <v>187</v>
-      </c>
-      <c r="D44" t="n">
-        <v>187</v>
-      </c>
-      <c r="E44" t="n">
-        <v>184</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1188.1002</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-32633.9889</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>184</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>189</v>
+      </c>
+      <c r="C50" t="n">
+        <v>189</v>
+      </c>
+      <c r="D50" t="n">
+        <v>189</v>
+      </c>
+      <c r="E50" t="n">
+        <v>189</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>188</v>
-      </c>
-      <c r="C45" t="n">
-        <v>193</v>
-      </c>
-      <c r="D45" t="n">
-        <v>193</v>
-      </c>
-      <c r="E45" t="n">
-        <v>188</v>
-      </c>
-      <c r="F45" t="n">
-        <v>34581.71643809524</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1947.727538095241</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>189</v>
+      </c>
+      <c r="C51" t="n">
+        <v>191</v>
+      </c>
+      <c r="D51" t="n">
+        <v>191</v>
+      </c>
+      <c r="E51" t="n">
+        <v>189</v>
+      </c>
+      <c r="F51" t="n">
+        <v>179.6438659685864</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>193</v>
-      </c>
-      <c r="C46" t="n">
-        <v>193</v>
-      </c>
-      <c r="D46" t="n">
-        <v>194</v>
-      </c>
-      <c r="E46" t="n">
-        <v>192</v>
-      </c>
-      <c r="F46" t="n">
-        <v>16758</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1947.727538095241</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>187</v>
+      </c>
+      <c r="C52" t="n">
+        <v>187</v>
+      </c>
+      <c r="D52" t="n">
+        <v>187</v>
+      </c>
+      <c r="E52" t="n">
+        <v>187</v>
+      </c>
+      <c r="F52" t="n">
+        <v>682</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>190</v>
-      </c>
-      <c r="C47" t="n">
-        <v>192</v>
-      </c>
-      <c r="D47" t="n">
-        <v>192</v>
-      </c>
-      <c r="E47" t="n">
-        <v>189</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2216.6095</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-268.8819619047586</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>187</v>
+      </c>
+      <c r="C53" t="n">
+        <v>187</v>
+      </c>
+      <c r="D53" t="n">
+        <v>187</v>
+      </c>
+      <c r="E53" t="n">
+        <v>187</v>
+      </c>
+      <c r="F53" t="n">
+        <v>598.802</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>192</v>
-      </c>
-      <c r="C48" t="n">
-        <v>193</v>
-      </c>
-      <c r="D48" t="n">
-        <v>193</v>
-      </c>
-      <c r="E48" t="n">
-        <v>192</v>
-      </c>
-      <c r="F48" t="n">
-        <v>9632.347299999999</v>
-      </c>
-      <c r="G48" t="n">
-        <v>9363.46533809524</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>191</v>
+      </c>
+      <c r="C54" t="n">
+        <v>191</v>
+      </c>
+      <c r="D54" t="n">
+        <v>191</v>
+      </c>
+      <c r="E54" t="n">
+        <v>191</v>
+      </c>
+      <c r="F54" t="n">
+        <v>10.5292</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>188</v>
-      </c>
-      <c r="C49" t="n">
-        <v>188</v>
-      </c>
-      <c r="D49" t="n">
-        <v>188</v>
-      </c>
-      <c r="E49" t="n">
-        <v>188</v>
-      </c>
-      <c r="F49" t="n">
-        <v>65.3018</v>
-      </c>
-      <c r="G49" t="n">
-        <v>9298.163538095241</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>189</v>
-      </c>
-      <c r="C50" t="n">
-        <v>189</v>
-      </c>
-      <c r="D50" t="n">
-        <v>189</v>
-      </c>
-      <c r="E50" t="n">
-        <v>189</v>
-      </c>
-      <c r="F50" t="n">
-        <v>6</v>
-      </c>
-      <c r="G50" t="n">
-        <v>9304.163538095241</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>189</v>
-      </c>
-      <c r="C51" t="n">
-        <v>191</v>
-      </c>
-      <c r="D51" t="n">
-        <v>191</v>
-      </c>
-      <c r="E51" t="n">
-        <v>189</v>
-      </c>
-      <c r="F51" t="n">
-        <v>179.6438659685864</v>
-      </c>
-      <c r="G51" t="n">
-        <v>9483.807404063828</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>187</v>
-      </c>
-      <c r="C52" t="n">
-        <v>187</v>
-      </c>
-      <c r="D52" t="n">
-        <v>187</v>
-      </c>
-      <c r="E52" t="n">
-        <v>187</v>
-      </c>
-      <c r="F52" t="n">
-        <v>682</v>
-      </c>
-      <c r="G52" t="n">
-        <v>8801.807404063828</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>187</v>
-      </c>
-      <c r="C53" t="n">
-        <v>187</v>
-      </c>
-      <c r="D53" t="n">
-        <v>187</v>
-      </c>
-      <c r="E53" t="n">
-        <v>187</v>
-      </c>
-      <c r="F53" t="n">
-        <v>598.802</v>
-      </c>
-      <c r="G53" t="n">
-        <v>8801.807404063828</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>191</v>
-      </c>
-      <c r="C54" t="n">
-        <v>191</v>
-      </c>
-      <c r="D54" t="n">
-        <v>191</v>
-      </c>
-      <c r="E54" t="n">
-        <v>191</v>
-      </c>
-      <c r="F54" t="n">
-        <v>10.5292</v>
-      </c>
-      <c r="G54" t="n">
-        <v>8812.336604063828</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2279,22 +2079,17 @@
         <v>10.5028</v>
       </c>
       <c r="G55" t="n">
-        <v>8801.833804063828</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2316,22 +2111,15 @@
         <v>1872.015789473684</v>
       </c>
       <c r="G56" t="n">
-        <v>10673.84959353751</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2353,22 +2141,15 @@
         <v>253.5031</v>
       </c>
       <c r="G57" t="n">
-        <v>10420.34649353751</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2390,22 +2171,15 @@
         <v>450</v>
       </c>
       <c r="G58" t="n">
-        <v>10420.34649353751</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2427,22 +2201,15 @@
         <v>53.69511122994653</v>
       </c>
       <c r="G59" t="n">
-        <v>10420.34649353751</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2464,22 +2231,15 @@
         <v>776</v>
       </c>
       <c r="G60" t="n">
-        <v>9644.346493537512</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2501,22 +2261,15 @@
         <v>306.6631</v>
       </c>
       <c r="G61" t="n">
-        <v>9951.009593537512</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2538,22 +2291,15 @@
         <v>353.647</v>
       </c>
       <c r="G62" t="n">
-        <v>9597.362593537511</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2575,22 +2321,15 @@
         <v>200</v>
       </c>
       <c r="G63" t="n">
-        <v>9597.362593537511</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2612,22 +2351,15 @@
         <v>1024400</v>
       </c>
       <c r="G64" t="n">
-        <v>1033997.362593538</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2649,22 +2381,15 @@
         <v>2160000</v>
       </c>
       <c r="G65" t="n">
-        <v>1033997.362593538</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2686,22 +2411,15 @@
         <v>765043.9424000001</v>
       </c>
       <c r="G66" t="n">
-        <v>1033997.362593538</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2723,22 +2441,15 @@
         <v>4558.9498</v>
       </c>
       <c r="G67" t="n">
-        <v>1033997.362593538</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2760,22 +2471,15 @@
         <v>9.919700000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>1033997.362593538</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2797,22 +2501,15 @@
         <v>1813.8513</v>
       </c>
       <c r="G69" t="n">
-        <v>1033997.362593538</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2834,22 +2531,15 @@
         <v>2992.5</v>
       </c>
       <c r="G70" t="n">
-        <v>1031004.862593538</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2871,22 +2561,15 @@
         <v>9596.3797</v>
       </c>
       <c r="G71" t="n">
-        <v>1040601.242293538</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2908,22 +2591,15 @@
         <v>28198.9999</v>
       </c>
       <c r="G72" t="n">
-        <v>1040601.242293538</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2945,22 +2621,15 @@
         <v>1804493.22</v>
       </c>
       <c r="G73" t="n">
-        <v>2845094.462293537</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,22 +2651,15 @@
         <v>365087.013</v>
       </c>
       <c r="G74" t="n">
-        <v>2480007.449293538</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3019,22 +2681,15 @@
         <v>990510.9570000001</v>
       </c>
       <c r="G75" t="n">
-        <v>3470518.406293537</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3056,22 +2711,15 @@
         <v>2531200</v>
       </c>
       <c r="G76" t="n">
-        <v>3470518.406293537</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3093,22 +2741,15 @@
         <v>2580400</v>
       </c>
       <c r="G77" t="n">
-        <v>3470518.406293537</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3130,22 +2771,15 @@
         <v>1760000</v>
       </c>
       <c r="G78" t="n">
-        <v>3470518.406293537</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3167,22 +2801,15 @@
         <v>800</v>
       </c>
       <c r="G79" t="n">
-        <v>3469718.406293537</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3204,22 +2831,15 @@
         <v>0.0001</v>
       </c>
       <c r="G80" t="n">
-        <v>3469718.406293537</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3241,22 +2861,15 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>3469728.406293537</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3278,22 +2891,15 @@
         <v>819.629</v>
       </c>
       <c r="G82" t="n">
-        <v>3468908.777293537</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3315,22 +2921,15 @@
         <v>5775</v>
       </c>
       <c r="G83" t="n">
-        <v>3463133.777293537</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3352,22 +2951,15 @@
         <v>1456.216</v>
       </c>
       <c r="G84" t="n">
-        <v>3464589.993293537</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3389,22 +2981,15 @@
         <v>1056.216</v>
       </c>
       <c r="G85" t="n">
-        <v>3464589.993293537</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3426,22 +3011,15 @@
         <v>5399.216</v>
       </c>
       <c r="G86" t="n">
-        <v>3459190.777293537</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3463,22 +3041,15 @@
         <v>1010.1861</v>
       </c>
       <c r="G87" t="n">
-        <v>3460200.963393537</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3500,22 +3071,15 @@
         <v>38.5843</v>
       </c>
       <c r="G88" t="n">
-        <v>3460200.963393537</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3537,22 +3101,15 @@
         <v>525.0774</v>
       </c>
       <c r="G89" t="n">
-        <v>3460726.040793537</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3574,22 +3131,15 @@
         <v>38.5843</v>
       </c>
       <c r="G90" t="n">
-        <v>3460687.456493537</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3611,22 +3161,15 @@
         <v>838.095</v>
       </c>
       <c r="G91" t="n">
-        <v>3460687.456493537</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3648,22 +3191,15 @@
         <v>425.4827</v>
       </c>
       <c r="G92" t="n">
-        <v>3461112.939193537</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3685,22 +3221,15 @@
         <v>1190</v>
       </c>
       <c r="G93" t="n">
-        <v>3461112.939193537</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3722,22 +3251,15 @@
         <v>393</v>
       </c>
       <c r="G94" t="n">
-        <v>3461112.939193537</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3759,22 +3281,15 @@
         <v>179.7607</v>
       </c>
       <c r="G95" t="n">
-        <v>3461112.939193537</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3796,22 +3311,15 @@
         <v>518.8726</v>
       </c>
       <c r="G96" t="n">
-        <v>3460594.066593537</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3833,22 +3341,15 @@
         <v>9392.999</v>
       </c>
       <c r="G97" t="n">
-        <v>3451201.067593537</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3870,22 +3371,15 @@
         <v>556740</v>
       </c>
       <c r="G98" t="n">
-        <v>3451201.067593537</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3907,22 +3401,15 @@
         <v>1268650.29</v>
       </c>
       <c r="G99" t="n">
-        <v>3451201.067593537</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3944,22 +3431,15 @@
         <v>996590</v>
       </c>
       <c r="G100" t="n">
-        <v>4447791.067593537</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3981,22 +3461,15 @@
         <v>1340000</v>
       </c>
       <c r="G101" t="n">
-        <v>4447791.067593537</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4018,22 +3491,15 @@
         <v>1340000</v>
       </c>
       <c r="G102" t="n">
-        <v>4447791.067593537</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4055,20 +3521,15 @@
         <v>1355136.9699</v>
       </c>
       <c r="G103" t="n">
-        <v>4447791.067593537</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K103" t="n">
+        <v>1</v>
       </c>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4090,18 +3551,15 @@
         <v>608039</v>
       </c>
       <c r="G104" t="n">
-        <v>4447791.067593537</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4123,18 +3581,15 @@
         <v>491461</v>
       </c>
       <c r="G105" t="n">
-        <v>4447791.067593537</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4156,18 +3611,15 @@
         <v>2090.9275</v>
       </c>
       <c r="G106" t="n">
-        <v>4445700.140093537</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4189,18 +3641,15 @@
         <v>9733.852699999999</v>
       </c>
       <c r="G107" t="n">
-        <v>4455433.992793537</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4222,18 +3671,15 @@
         <v>2080.1746</v>
       </c>
       <c r="G108" t="n">
-        <v>4453353.818193537</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4255,18 +3701,15 @@
         <v>721.3249</v>
       </c>
       <c r="G109" t="n">
-        <v>4453353.818193537</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4288,18 +3731,15 @@
         <v>15667.5872</v>
       </c>
       <c r="G110" t="n">
-        <v>4437686.230993537</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4321,18 +3761,15 @@
         <v>11.68783068783069</v>
       </c>
       <c r="G111" t="n">
-        <v>4437697.918824225</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4354,18 +3791,15 @@
         <v>5000</v>
       </c>
       <c r="G112" t="n">
-        <v>4432697.918824225</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4387,18 +3821,15 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>4432698.918824225</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4420,18 +3851,15 @@
         <v>5000</v>
       </c>
       <c r="G114" t="n">
-        <v>4427698.918824225</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4453,18 +3881,15 @@
         <v>2389</v>
       </c>
       <c r="G115" t="n">
-        <v>4430087.918824225</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4486,18 +3911,15 @@
         <v>878.5445999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>4430087.918824225</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4519,18 +3941,15 @@
         <v>874.8972</v>
       </c>
       <c r="G117" t="n">
-        <v>4430087.918824225</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4552,18 +3971,15 @@
         <v>1956.0377</v>
       </c>
       <c r="G118" t="n">
-        <v>4428131.881124225</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4585,18 +4001,15 @@
         <v>6648.1574</v>
       </c>
       <c r="G119" t="n">
-        <v>4421483.723724225</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4618,18 +4031,15 @@
         <v>8377.289500000001</v>
       </c>
       <c r="G120" t="n">
-        <v>4429861.013224225</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4651,18 +4061,15 @@
         <v>1222</v>
       </c>
       <c r="G121" t="n">
-        <v>4431083.013224225</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4684,18 +4091,15 @@
         <v>8766.021199999999</v>
       </c>
       <c r="G122" t="n">
-        <v>4422316.992024224</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4717,18 +4121,15 @@
         <v>2066.9721</v>
       </c>
       <c r="G123" t="n">
-        <v>4420250.019924224</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4750,18 +4151,15 @@
         <v>2054.8815</v>
       </c>
       <c r="G124" t="n">
-        <v>4420250.019924224</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4783,18 +4181,15 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>4420251.019924224</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4816,18 +4211,15 @@
         <v>60.4026</v>
       </c>
       <c r="G126" t="n">
-        <v>4420190.617324225</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4849,18 +4241,15 @@
         <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>4420192.617324225</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4882,18 +4271,15 @@
         <v>7168.4764</v>
       </c>
       <c r="G128" t="n">
-        <v>4413024.140924225</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4915,18 +4301,15 @@
         <v>75.99979999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>4413024.140924225</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4948,18 +4331,15 @@
         <v>473.0714</v>
       </c>
       <c r="G130" t="n">
-        <v>4413497.212324224</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4981,18 +4361,15 @@
         <v>38.1995</v>
       </c>
       <c r="G131" t="n">
-        <v>4413535.411824225</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5014,18 +4391,15 @@
         <v>29</v>
       </c>
       <c r="G132" t="n">
-        <v>4413535.411824225</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5047,18 +4421,15 @@
         <v>2741.0729</v>
       </c>
       <c r="G133" t="n">
-        <v>4410794.338924224</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5080,18 +4451,15 @@
         <v>38.1995</v>
       </c>
       <c r="G134" t="n">
-        <v>4410756.139424224</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5113,18 +4481,15 @@
         <v>1550.2291</v>
       </c>
       <c r="G135" t="n">
-        <v>4410756.139424224</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5146,18 +4511,15 @@
         <v>29</v>
       </c>
       <c r="G136" t="n">
-        <v>4410785.139424224</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5179,18 +4541,15 @@
         <v>199</v>
       </c>
       <c r="G137" t="n">
-        <v>4410586.139424224</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5212,18 +4571,15 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>4410587.139424224</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5245,18 +4601,15 @@
         <v>4000</v>
       </c>
       <c r="G139" t="n">
-        <v>4406587.139424224</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5278,18 +4631,15 @@
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>4406588.139424224</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5311,18 +4661,15 @@
         <v>1011</v>
       </c>
       <c r="G141" t="n">
-        <v>4405577.139424224</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5344,18 +4691,15 @@
         <v>152</v>
       </c>
       <c r="G142" t="n">
-        <v>4405577.139424224</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5377,18 +4721,15 @@
         <v>1433.7718</v>
       </c>
       <c r="G143" t="n">
-        <v>4407010.911224225</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5410,18 +4751,15 @@
         <v>2798.1215</v>
       </c>
       <c r="G144" t="n">
-        <v>4409809.032724225</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5443,18 +4781,15 @@
         <v>3169.6708</v>
       </c>
       <c r="G145" t="n">
-        <v>4412978.703524225</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5476,18 +4811,15 @@
         <v>3611.4565</v>
       </c>
       <c r="G146" t="n">
-        <v>4409367.247024225</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5509,18 +4841,15 @@
         <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>4409368.247024225</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5542,18 +4871,15 @@
         <v>205.3129</v>
       </c>
       <c r="G148" t="n">
-        <v>4409368.247024225</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5575,18 +4901,15 @@
         <v>5500</v>
       </c>
       <c r="G149" t="n">
-        <v>4409368.247024225</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5608,18 +4931,15 @@
         <v>0.3648</v>
       </c>
       <c r="G150" t="n">
-        <v>4409368.247024225</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5641,18 +4961,15 @@
         <v>3574.5658</v>
       </c>
       <c r="G151" t="n">
-        <v>4412942.812824225</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5674,18 +4991,15 @@
         <v>172.1412</v>
       </c>
       <c r="G152" t="n">
-        <v>4412770.671624225</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5707,18 +5021,15 @@
         <v>12.16042780748663</v>
       </c>
       <c r="G153" t="n">
-        <v>4412782.832052032</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5740,18 +5051,15 @@
         <v>171</v>
       </c>
       <c r="G154" t="n">
-        <v>4412611.832052032</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5773,18 +5081,15 @@
         <v>9226.758900000001</v>
       </c>
       <c r="G155" t="n">
-        <v>4403385.073152033</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5806,18 +5111,15 @@
         <v>2250.1084</v>
       </c>
       <c r="G156" t="n">
-        <v>4403385.073152033</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5839,18 +5141,15 @@
         <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>4403386.073152033</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5872,18 +5171,15 @@
         <v>7908.7899</v>
       </c>
       <c r="G158" t="n">
-        <v>4403386.073152033</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5905,18 +5201,15 @@
         <v>210.1265</v>
       </c>
       <c r="G159" t="n">
-        <v>4403386.073152033</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5938,18 +5231,15 @@
         <v>498.3689</v>
       </c>
       <c r="G160" t="n">
-        <v>4403386.073152033</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5971,18 +5261,15 @@
         <v>809.0795000000001</v>
       </c>
       <c r="G161" t="n">
-        <v>4403386.073152033</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6004,18 +5291,15 @@
         <v>1716.0925</v>
       </c>
       <c r="G162" t="n">
-        <v>4403386.073152033</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6037,18 +5321,15 @@
         <v>223</v>
       </c>
       <c r="G163" t="n">
-        <v>4403386.073152033</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6070,18 +5351,15 @@
         <v>650</v>
       </c>
       <c r="G164" t="n">
-        <v>4403386.073152033</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6103,18 +5381,15 @@
         <v>3509.576572192514</v>
       </c>
       <c r="G165" t="n">
-        <v>4406895.649724226</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6136,18 +5411,15 @@
         <v>3986.8422</v>
       </c>
       <c r="G166" t="n">
-        <v>4402908.807524226</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6169,18 +5441,15 @@
         <v>11728.5798</v>
       </c>
       <c r="G167" t="n">
-        <v>4391180.227724225</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6202,18 +5471,15 @@
         <v>6358.3368</v>
       </c>
       <c r="G168" t="n">
-        <v>4397538.564524225</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6235,18 +5501,15 @@
         <v>8744.106100000001</v>
       </c>
       <c r="G169" t="n">
-        <v>4388794.458424225</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6268,18 +5531,15 @@
         <v>5915.9998</v>
       </c>
       <c r="G170" t="n">
-        <v>4382878.458624224</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
